--- a/GDPcontributionbyindustry.xlsx
+++ b/GDPcontributionbyindustry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teeds\Documents\GitHub\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4BFD2C-A690-48EC-B906-9529D15835A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74758C43-8B41-4372-83B9-AA3C510C4D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7248" yWindow="2184" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Enquiries" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="A2298668K">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$11</definedName>
-    <definedName name="A2298668K_Data">Data1!$DF$11:$DF$11</definedName>
+    <definedName name="A2298668K">Data1!$DF$1:$DF$2,Data1!$DF$3:$DF$3</definedName>
+    <definedName name="A2298668K_Data">Data1!$DF$3:$DF$3</definedName>
     <definedName name="A2298668K_Latest">Data1!#REF!</definedName>
     <definedName name="A2302356K">Data2!$U$1:$U$10,Data2!$U$71:$U$270</definedName>
     <definedName name="A2302356K_Data">Data2!$U$71:$U$270</definedName>
@@ -40,35 +40,35 @@
     <definedName name="A2302694A">Data2!$CU$1:$CU$10,Data2!$CU$72:$CU$269</definedName>
     <definedName name="A2302694A_Data">Data2!$CU$72:$CU$269</definedName>
     <definedName name="A2302694A_Latest">Data2!$CU$269</definedName>
-    <definedName name="A2303469X">Data1!$FF$1:$FF$10,Data1!$FF$11:$FF$11</definedName>
-    <definedName name="A2303469X_Data">Data1!$FF$11:$FF$11</definedName>
+    <definedName name="A2303469X">Data1!$FF$1:$FF$2,Data1!$FF$3:$FF$3</definedName>
+    <definedName name="A2303469X_Data">Data1!$FF$3:$FF$3</definedName>
     <definedName name="A2303469X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2303471K">Data1!$FH$1:$FH$10,Data1!$FH$11:$FH$11</definedName>
-    <definedName name="A2303471K_Data">Data1!$FH$11:$FH$11</definedName>
+    <definedName name="A2303471K">Data1!$FH$1:$FH$2,Data1!$FH$3:$FH$3</definedName>
+    <definedName name="A2303471K_Data">Data1!$FH$3:$FH$3</definedName>
     <definedName name="A2303471K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2303548W">Data1!$HI$1:$HI$10,Data1!$HI$11:$HI$11</definedName>
-    <definedName name="A2303548W_Data">Data1!$HI$11:$HI$11</definedName>
+    <definedName name="A2303548W">Data1!$HI$1:$HI$2,Data1!$HI$3:$HI$3</definedName>
+    <definedName name="A2303548W_Data">Data1!$HI$3:$HI$3</definedName>
     <definedName name="A2303548W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2303599W">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$11</definedName>
-    <definedName name="A2303599W_Data">Data1!$BA$11:$BA$11</definedName>
+    <definedName name="A2303599W">Data1!$BA$1:$BA$2,Data1!$BA$3:$BA$3</definedName>
+    <definedName name="A2303599W_Data">Data1!$BA$3:$BA$3</definedName>
     <definedName name="A2303599W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2303601W">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$11</definedName>
-    <definedName name="A2303601W_Data">Data1!$BC$11:$BC$11</definedName>
+    <definedName name="A2303601W">Data1!$BC$1:$BC$2,Data1!$BC$3:$BC$3</definedName>
+    <definedName name="A2303601W_Data">Data1!$BC$3:$BC$3</definedName>
     <definedName name="A2303601W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2303678V">Data1!$DD$1:$DD$10,Data1!$DD$11:$DD$11</definedName>
-    <definedName name="A2303678V_Data">Data1!$DD$11:$DD$11</definedName>
+    <definedName name="A2303678V">Data1!$DD$1:$DD$2,Data1!$DD$3:$DD$3</definedName>
+    <definedName name="A2303678V_Data">Data1!$DD$3:$DD$3</definedName>
     <definedName name="A2303678V_Latest">Data1!#REF!</definedName>
     <definedName name="A2304030W">Data2!$BZ$1:$BZ$10,Data2!$BZ$15:$BZ$270</definedName>
     <definedName name="A2304030W_Data">Data2!$BZ$15:$BZ$270</definedName>
     <definedName name="A2304030W_Latest">Data2!$BZ$270</definedName>
-    <definedName name="A2304334J">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$11</definedName>
-    <definedName name="A2304334J_Data">Data1!$BD$11:$BD$11</definedName>
+    <definedName name="A2304334J">Data1!$BD$1:$BD$2,Data1!$BD$3:$BD$3</definedName>
+    <definedName name="A2304334J_Data">Data1!$BD$3:$BD$3</definedName>
     <definedName name="A2304334J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2304370T">Data1!$HK$1:$HK$10,Data1!$HK$11:$HK$11</definedName>
-    <definedName name="A2304370T_Data">Data1!$HK$11:$HK$11</definedName>
+    <definedName name="A2304370T">Data1!$HK$1:$HK$2,Data1!$HK$3:$HK$3</definedName>
+    <definedName name="A2304370T_Data">Data1!$HK$3:$HK$3</definedName>
     <definedName name="A2304370T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2304402X">Data1!$FI$1:$FI$10,Data1!$FI$11:$FI$11</definedName>
-    <definedName name="A2304402X_Data">Data1!$FI$11:$FI$11</definedName>
+    <definedName name="A2304402X">Data1!$FI$1:$FI$2,Data1!$FI$3:$FI$3</definedName>
+    <definedName name="A2304402X_Data">Data1!$FI$3:$FI$3</definedName>
     <definedName name="A2304402X_Latest">Data1!#REF!</definedName>
     <definedName name="A2323348A">Data2!$V$1:$V$10,Data2!$V$71:$V$270</definedName>
     <definedName name="A2323348A_Data">Data2!$V$71:$V$270</definedName>
@@ -76,32 +76,32 @@
     <definedName name="A2323349C">Data2!$CV$1:$CV$10,Data2!$CV$72:$CV$269</definedName>
     <definedName name="A2323349C_Data">Data2!$CV$72:$CV$269</definedName>
     <definedName name="A2323349C_Latest">Data2!$CV$269</definedName>
-    <definedName name="A2323350L">Data1!$HJ$1:$HJ$10,Data1!$HJ$11:$HJ$11</definedName>
-    <definedName name="A2323350L_Data">Data1!$HJ$11:$HJ$11</definedName>
+    <definedName name="A2323350L">Data1!$HJ$1:$HJ$2,Data1!$HJ$3:$HJ$3</definedName>
+    <definedName name="A2323350L_Data">Data1!$HJ$3:$HJ$3</definedName>
     <definedName name="A2323350L_Latest">Data1!#REF!</definedName>
     <definedName name="A2323352T">Data2!$BY$1:$BY$10,Data2!$BY$72:$BY$270</definedName>
     <definedName name="A2323352T_Data">Data2!$BY$72:$BY$270</definedName>
     <definedName name="A2323352T_Latest">Data2!$BY$270</definedName>
-    <definedName name="A2323353V">Data1!$FG$1:$FG$10,Data1!$FG$11:$FG$11</definedName>
-    <definedName name="A2323353V_Data">Data1!$FG$11:$FG$11</definedName>
+    <definedName name="A2323353V">Data1!$FG$1:$FG$2,Data1!$FG$3:$FG$3</definedName>
+    <definedName name="A2323353V_Data">Data1!$FG$3:$FG$3</definedName>
     <definedName name="A2323353V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2323355X">Data1!$DE$1:$DE$10,Data1!$DE$11:$DE$11</definedName>
-    <definedName name="A2323355X_Data">Data1!$DE$11:$DE$11</definedName>
+    <definedName name="A2323355X">Data1!$DE$1:$DE$2,Data1!$DE$3:$DE$3</definedName>
+    <definedName name="A2323355X_Data">Data1!$DE$3:$DE$3</definedName>
     <definedName name="A2323355X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2323358F">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$11</definedName>
-    <definedName name="A2323358F_Data">Data1!$BB$11:$BB$11</definedName>
+    <definedName name="A2323358F">Data1!$BB$1:$BB$2,Data1!$BB$3:$BB$3</definedName>
+    <definedName name="A2323358F_Data">Data1!$BB$3:$BB$3</definedName>
     <definedName name="A2323358F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2529206X">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$11</definedName>
-    <definedName name="A2529206X_Data">Data1!$AZ$11:$AZ$11</definedName>
+    <definedName name="A2529206X">Data1!$AZ$1:$AZ$2,Data1!$AZ$3:$AZ$3</definedName>
+    <definedName name="A2529206X_Data">Data1!$AZ$3:$AZ$3</definedName>
     <definedName name="A2529206X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2529207A">Data1!$DC$1:$DC$10,Data1!$DC$11:$DC$11</definedName>
-    <definedName name="A2529207A_Data">Data1!$DC$11:$DC$11</definedName>
+    <definedName name="A2529207A">Data1!$DC$1:$DC$2,Data1!$DC$3:$DC$3</definedName>
+    <definedName name="A2529207A_Data">Data1!$DC$3:$DC$3</definedName>
     <definedName name="A2529207A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2529209F">Data1!$FE$1:$FE$10,Data1!$FE$11:$FE$11</definedName>
-    <definedName name="A2529209F_Data">Data1!$FE$11:$FE$11</definedName>
+    <definedName name="A2529209F">Data1!$FE$1:$FE$2,Data1!$FE$3:$FE$3</definedName>
+    <definedName name="A2529209F_Data">Data1!$FE$3:$FE$3</definedName>
     <definedName name="A2529209F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2529210R">Data1!$HH$1:$HH$10,Data1!$HH$11:$HH$11</definedName>
-    <definedName name="A2529210R_Data">Data1!$HH$11:$HH$11</definedName>
+    <definedName name="A2529210R">Data1!$HH$1:$HH$2,Data1!$HH$3:$HH$3</definedName>
+    <definedName name="A2529210R_Data">Data1!$HH$3:$HH$3</definedName>
     <definedName name="A2529210R_Latest">Data1!#REF!</definedName>
     <definedName name="A2529212V">Data2!$CT$1:$CT$10,Data2!$CT$72:$CT$269</definedName>
     <definedName name="A2529212V_Data">Data2!$CT$72:$CT$269</definedName>
@@ -169,101 +169,101 @@
     <definedName name="A2716021J">Data2!$CS$1:$CS$10,Data2!$CS$72:$CS$269</definedName>
     <definedName name="A2716021J_Data">Data2!$CS$72:$CS$269</definedName>
     <definedName name="A2716021J_Latest">Data2!$CS$269</definedName>
-    <definedName name="A2716040R">Data1!$FL$1:$FL$10,Data1!$FL$11:$FL$11</definedName>
-    <definedName name="A2716040R_Data">Data1!$FL$11:$FL$11</definedName>
+    <definedName name="A2716040R">Data1!$FL$1:$FL$2,Data1!$FL$3:$FL$3</definedName>
+    <definedName name="A2716040R_Data">Data1!$FL$3:$FL$3</definedName>
     <definedName name="A2716040R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716041T">Data1!$FJ$1:$FJ$10,Data1!$FJ$11:$FJ$11</definedName>
-    <definedName name="A2716041T_Data">Data1!$FJ$11:$FJ$11</definedName>
+    <definedName name="A2716041T">Data1!$FJ$1:$FJ$2,Data1!$FJ$3:$FJ$3</definedName>
+    <definedName name="A2716041T_Data">Data1!$FJ$3:$FJ$3</definedName>
     <definedName name="A2716041T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716042V">Data1!$FK$1:$FK$10,Data1!$FK$11:$FK$11</definedName>
-    <definedName name="A2716042V_Data">Data1!$FK$11:$FK$11</definedName>
+    <definedName name="A2716042V">Data1!$FK$1:$FK$2,Data1!$FK$3:$FK$3</definedName>
+    <definedName name="A2716042V_Data">Data1!$FK$3:$FK$3</definedName>
     <definedName name="A2716042V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716043W">Data1!$FS$1:$FS$10,Data1!$FS$11:$FS$11</definedName>
-    <definedName name="A2716043W_Data">Data1!$FS$11:$FS$11</definedName>
+    <definedName name="A2716043W">Data1!$FS$1:$FS$2,Data1!$FS$3:$FS$3</definedName>
+    <definedName name="A2716043W_Data">Data1!$FS$3:$FS$3</definedName>
     <definedName name="A2716043W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716044X">Data1!$FR$1:$FR$10,Data1!$FR$11:$FR$11</definedName>
-    <definedName name="A2716044X_Data">Data1!$FR$11:$FR$11</definedName>
+    <definedName name="A2716044X">Data1!$FR$1:$FR$2,Data1!$FR$3:$FR$3</definedName>
+    <definedName name="A2716044X_Data">Data1!$FR$3:$FR$3</definedName>
     <definedName name="A2716044X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716045A">Data1!$FQ$1:$FQ$10,Data1!$FQ$11:$FQ$11</definedName>
-    <definedName name="A2716045A_Data">Data1!$FQ$11:$FQ$11</definedName>
+    <definedName name="A2716045A">Data1!$FQ$1:$FQ$2,Data1!$FQ$3:$FQ$3</definedName>
+    <definedName name="A2716045A_Data">Data1!$FQ$3:$FQ$3</definedName>
     <definedName name="A2716045A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716046C">Data1!$FY$1:$FY$10,Data1!$FY$11:$FY$11</definedName>
-    <definedName name="A2716046C_Data">Data1!$FY$11:$FY$11</definedName>
+    <definedName name="A2716046C">Data1!$FY$1:$FY$2,Data1!$FY$3:$FY$3</definedName>
+    <definedName name="A2716046C_Data">Data1!$FY$3:$FY$3</definedName>
     <definedName name="A2716046C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716047F">Data1!$FT$1:$FT$10,Data1!$FT$11:$FT$11</definedName>
-    <definedName name="A2716047F_Data">Data1!$FT$11:$FT$11</definedName>
+    <definedName name="A2716047F">Data1!$FT$1:$FT$2,Data1!$FT$3:$FT$3</definedName>
+    <definedName name="A2716047F_Data">Data1!$FT$3:$FT$3</definedName>
     <definedName name="A2716047F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716048J">Data1!$FV$1:$FV$10,Data1!$FV$11:$FV$11</definedName>
-    <definedName name="A2716048J_Data">Data1!$FV$11:$FV$11</definedName>
+    <definedName name="A2716048J">Data1!$FV$1:$FV$2,Data1!$FV$3:$FV$3</definedName>
+    <definedName name="A2716048J_Data">Data1!$FV$3:$FV$3</definedName>
     <definedName name="A2716048J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716049K">Data1!$FW$1:$FW$10,Data1!$FW$11:$FW$11</definedName>
-    <definedName name="A2716049K_Data">Data1!$FW$11:$FW$11</definedName>
+    <definedName name="A2716049K">Data1!$FW$1:$FW$2,Data1!$FW$3:$FW$3</definedName>
+    <definedName name="A2716049K_Data">Data1!$FW$3:$FW$3</definedName>
     <definedName name="A2716049K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716051W">Data1!$FU$1:$FU$10,Data1!$FU$11:$FU$11</definedName>
-    <definedName name="A2716051W_Data">Data1!$FU$11:$FU$11</definedName>
+    <definedName name="A2716051W">Data1!$FU$1:$FU$2,Data1!$FU$3:$FU$3</definedName>
+    <definedName name="A2716051W_Data">Data1!$FU$3:$FU$3</definedName>
     <definedName name="A2716051W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716055F">Data1!$GC$1:$GC$10,Data1!$GC$11:$GC$11</definedName>
-    <definedName name="A2716055F_Data">Data1!$GC$11:$GC$11</definedName>
+    <definedName name="A2716055F">Data1!$GC$1:$GC$2,Data1!$GC$3:$GC$3</definedName>
+    <definedName name="A2716055F_Data">Data1!$GC$3:$GC$3</definedName>
     <definedName name="A2716055F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716056J">Data1!$FZ$1:$FZ$10,Data1!$FZ$11:$FZ$11</definedName>
-    <definedName name="A2716056J_Data">Data1!$FZ$11:$FZ$11</definedName>
+    <definedName name="A2716056J">Data1!$FZ$1:$FZ$2,Data1!$FZ$3:$FZ$3</definedName>
+    <definedName name="A2716056J_Data">Data1!$FZ$3:$FZ$3</definedName>
     <definedName name="A2716056J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716057K">Data1!$GA$1:$GA$10,Data1!$GA$11:$GA$11</definedName>
-    <definedName name="A2716057K_Data">Data1!$GA$11:$GA$11</definedName>
+    <definedName name="A2716057K">Data1!$GA$1:$GA$2,Data1!$GA$3:$GA$3</definedName>
+    <definedName name="A2716057K_Data">Data1!$GA$3:$GA$3</definedName>
     <definedName name="A2716057K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716058L">Data1!$GB$1:$GB$10,Data1!$GB$11:$GB$11</definedName>
-    <definedName name="A2716058L_Data">Data1!$GB$11:$GB$11</definedName>
+    <definedName name="A2716058L">Data1!$GB$1:$GB$2,Data1!$GB$3:$GB$3</definedName>
+    <definedName name="A2716058L_Data">Data1!$GB$3:$GB$3</definedName>
     <definedName name="A2716058L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716059R">Data1!$GG$1:$GG$10,Data1!$GG$11:$GG$11</definedName>
-    <definedName name="A2716059R_Data">Data1!$GG$11:$GG$11</definedName>
+    <definedName name="A2716059R">Data1!$GG$1:$GG$2,Data1!$GG$3:$GG$3</definedName>
+    <definedName name="A2716059R_Data">Data1!$GG$3:$GG$3</definedName>
     <definedName name="A2716059R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716060X">Data1!$GH$1:$GH$10,Data1!$GH$11:$GH$11</definedName>
-    <definedName name="A2716060X_Data">Data1!$GH$11:$GH$11</definedName>
+    <definedName name="A2716060X">Data1!$GH$1:$GH$2,Data1!$GH$3:$GH$3</definedName>
+    <definedName name="A2716060X_Data">Data1!$GH$3:$GH$3</definedName>
     <definedName name="A2716060X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716061A">Data1!$GI$1:$GI$10,Data1!$GI$11:$GI$11</definedName>
-    <definedName name="A2716061A_Data">Data1!$GI$11:$GI$11</definedName>
+    <definedName name="A2716061A">Data1!$GI$1:$GI$2,Data1!$GI$3:$GI$3</definedName>
+    <definedName name="A2716061A_Data">Data1!$GI$3:$GI$3</definedName>
     <definedName name="A2716061A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716062C">Data1!$GJ$1:$GJ$10,Data1!$GJ$11:$GJ$11</definedName>
-    <definedName name="A2716062C_Data">Data1!$GJ$11:$GJ$11</definedName>
+    <definedName name="A2716062C">Data1!$GJ$1:$GJ$2,Data1!$GJ$3:$GJ$3</definedName>
+    <definedName name="A2716062C_Data">Data1!$GJ$3:$GJ$3</definedName>
     <definedName name="A2716062C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716063F">Data1!$GO$1:$GO$10,Data1!$GO$11:$GO$11</definedName>
-    <definedName name="A2716063F_Data">Data1!$GO$11:$GO$11</definedName>
+    <definedName name="A2716063F">Data1!$GO$1:$GO$2,Data1!$GO$3:$GO$3</definedName>
+    <definedName name="A2716063F_Data">Data1!$GO$3:$GO$3</definedName>
     <definedName name="A2716063F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716064J">Data1!$GL$1:$GL$10,Data1!$GL$11:$GL$11</definedName>
-    <definedName name="A2716064J_Data">Data1!$GL$11:$GL$11</definedName>
+    <definedName name="A2716064J">Data1!$GL$1:$GL$2,Data1!$GL$3:$GL$3</definedName>
+    <definedName name="A2716064J_Data">Data1!$GL$3:$GL$3</definedName>
     <definedName name="A2716064J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716067R">Data1!$GN$1:$GN$10,Data1!$GN$11:$GN$11</definedName>
-    <definedName name="A2716067R_Data">Data1!$GN$11:$GN$11</definedName>
+    <definedName name="A2716067R">Data1!$GN$1:$GN$2,Data1!$GN$3:$GN$3</definedName>
+    <definedName name="A2716067R_Data">Data1!$GN$3:$GN$3</definedName>
     <definedName name="A2716067R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716068T">Data1!$GR$1:$GR$10,Data1!$GR$11:$GR$11</definedName>
-    <definedName name="A2716068T_Data">Data1!$GR$11:$GR$11</definedName>
+    <definedName name="A2716068T">Data1!$GR$1:$GR$2,Data1!$GR$3:$GR$3</definedName>
+    <definedName name="A2716068T_Data">Data1!$GR$3:$GR$3</definedName>
     <definedName name="A2716068T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716069V">Data1!$GU$1:$GU$10,Data1!$GU$11:$GU$11</definedName>
-    <definedName name="A2716069V_Data">Data1!$GU$11:$GU$11</definedName>
+    <definedName name="A2716069V">Data1!$GU$1:$GU$2,Data1!$GU$3:$GU$3</definedName>
+    <definedName name="A2716069V_Data">Data1!$GU$3:$GU$3</definedName>
     <definedName name="A2716069V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716070C">Data1!$GX$1:$GX$10,Data1!$GX$11:$GX$11</definedName>
-    <definedName name="A2716070C_Data">Data1!$GX$11:$GX$11</definedName>
+    <definedName name="A2716070C">Data1!$GX$1:$GX$2,Data1!$GX$3:$GX$3</definedName>
+    <definedName name="A2716070C_Data">Data1!$GX$3:$GX$3</definedName>
     <definedName name="A2716070C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716071F">Data1!$HA$1:$HA$10,Data1!$HA$11:$HA$11</definedName>
-    <definedName name="A2716071F_Data">Data1!$HA$11:$HA$11</definedName>
+    <definedName name="A2716071F">Data1!$HA$1:$HA$2,Data1!$HA$3:$HA$3</definedName>
+    <definedName name="A2716071F_Data">Data1!$HA$3:$HA$3</definedName>
     <definedName name="A2716071F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716072J">Data1!$HB$1:$HB$10,Data1!$HB$11:$HB$11</definedName>
-    <definedName name="A2716072J_Data">Data1!$HB$11:$HB$11</definedName>
+    <definedName name="A2716072J">Data1!$HB$1:$HB$2,Data1!$HB$3:$HB$3</definedName>
+    <definedName name="A2716072J_Data">Data1!$HB$3:$HB$3</definedName>
     <definedName name="A2716072J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716073K">Data1!$HC$1:$HC$10,Data1!$HC$11:$HC$11</definedName>
-    <definedName name="A2716073K_Data">Data1!$HC$11:$HC$11</definedName>
+    <definedName name="A2716073K">Data1!$HC$1:$HC$2,Data1!$HC$3:$HC$3</definedName>
+    <definedName name="A2716073K_Data">Data1!$HC$3:$HC$3</definedName>
     <definedName name="A2716073K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716074L">Data1!$HD$1:$HD$10,Data1!$HD$11:$HD$11</definedName>
-    <definedName name="A2716074L_Data">Data1!$HD$11:$HD$11</definedName>
+    <definedName name="A2716074L">Data1!$HD$1:$HD$2,Data1!$HD$3:$HD$3</definedName>
+    <definedName name="A2716074L_Data">Data1!$HD$3:$HD$3</definedName>
     <definedName name="A2716074L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716075R">Data1!$HE$1:$HE$10,Data1!$HE$11:$HE$11</definedName>
-    <definedName name="A2716075R_Data">Data1!$HE$11:$HE$11</definedName>
+    <definedName name="A2716075R">Data1!$HE$1:$HE$2,Data1!$HE$3:$HE$3</definedName>
+    <definedName name="A2716075R_Data">Data1!$HE$3:$HE$3</definedName>
     <definedName name="A2716075R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716076T">Data1!$HF$1:$HF$10,Data1!$HF$11:$HF$11</definedName>
-    <definedName name="A2716076T_Data">Data1!$HF$11:$HF$11</definedName>
+    <definedName name="A2716076T">Data1!$HF$1:$HF$2,Data1!$HF$3:$HF$3</definedName>
+    <definedName name="A2716076T_Data">Data1!$HF$3:$HF$3</definedName>
     <definedName name="A2716076T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716077V">Data1!$HG$1:$HG$10,Data1!$HG$11:$HG$11</definedName>
-    <definedName name="A2716077V_Data">Data1!$HG$11:$HG$11</definedName>
+    <definedName name="A2716077V">Data1!$HG$1:$HG$2,Data1!$HG$3:$HG$3</definedName>
+    <definedName name="A2716077V_Data">Data1!$HG$3:$HG$3</definedName>
     <definedName name="A2716077V_Latest">Data1!#REF!</definedName>
     <definedName name="A2716120R">Data2!$AA$1:$AA$10,Data2!$AA$72:$AA$270</definedName>
     <definedName name="A2716120R_Data">Data2!$AA$72:$AA$270</definedName>
@@ -358,164 +358,164 @@
     <definedName name="A2716156T">Data2!$BV$1:$BV$10,Data2!$BV$72:$BV$270</definedName>
     <definedName name="A2716156T_Data">Data2!$BV$72:$BV$270</definedName>
     <definedName name="A2716156T_Latest">Data2!$BV$270</definedName>
-    <definedName name="A2716160J">Data1!$DI$1:$DI$10,Data1!$DI$11:$DI$11</definedName>
-    <definedName name="A2716160J_Data">Data1!$DI$11:$DI$11</definedName>
+    <definedName name="A2716160J">Data1!$DI$1:$DI$2,Data1!$DI$3:$DI$3</definedName>
+    <definedName name="A2716160J_Data">Data1!$DI$3:$DI$3</definedName>
     <definedName name="A2716160J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716161K">Data1!$DG$1:$DG$10,Data1!$DG$11:$DG$11</definedName>
-    <definedName name="A2716161K_Data">Data1!$DG$11:$DG$11</definedName>
+    <definedName name="A2716161K">Data1!$DG$1:$DG$2,Data1!$DG$3:$DG$3</definedName>
+    <definedName name="A2716161K_Data">Data1!$DG$3:$DG$3</definedName>
     <definedName name="A2716161K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716162L">Data1!$DH$1:$DH$10,Data1!$DH$11:$DH$11</definedName>
-    <definedName name="A2716162L_Data">Data1!$DH$11:$DH$11</definedName>
+    <definedName name="A2716162L">Data1!$DH$1:$DH$2,Data1!$DH$3:$DH$3</definedName>
+    <definedName name="A2716162L_Data">Data1!$DH$3:$DH$3</definedName>
     <definedName name="A2716162L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716163R">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$11</definedName>
-    <definedName name="A2716163R_Data">Data1!$DP$11:$DP$11</definedName>
+    <definedName name="A2716163R">Data1!$DP$1:$DP$2,Data1!$DP$3:$DP$3</definedName>
+    <definedName name="A2716163R_Data">Data1!$DP$3:$DP$3</definedName>
     <definedName name="A2716163R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716164T">Data1!$DO$1:$DO$10,Data1!$DO$11:$DO$11</definedName>
-    <definedName name="A2716164T_Data">Data1!$DO$11:$DO$11</definedName>
+    <definedName name="A2716164T">Data1!$DO$1:$DO$2,Data1!$DO$3:$DO$3</definedName>
+    <definedName name="A2716164T_Data">Data1!$DO$3:$DO$3</definedName>
     <definedName name="A2716164T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716165V">Data1!$DN$1:$DN$10,Data1!$DN$11:$DN$11</definedName>
-    <definedName name="A2716165V_Data">Data1!$DN$11:$DN$11</definedName>
+    <definedName name="A2716165V">Data1!$DN$1:$DN$2,Data1!$DN$3:$DN$3</definedName>
+    <definedName name="A2716165V_Data">Data1!$DN$3:$DN$3</definedName>
     <definedName name="A2716165V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716166W">Data1!$DV$1:$DV$10,Data1!$DV$11:$DV$11</definedName>
-    <definedName name="A2716166W_Data">Data1!$DV$11:$DV$11</definedName>
+    <definedName name="A2716166W">Data1!$DV$1:$DV$2,Data1!$DV$3:$DV$3</definedName>
+    <definedName name="A2716166W_Data">Data1!$DV$3:$DV$3</definedName>
     <definedName name="A2716166W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716167X">Data1!$DQ$1:$DQ$10,Data1!$DQ$11:$DQ$11</definedName>
-    <definedName name="A2716167X_Data">Data1!$DQ$11:$DQ$11</definedName>
+    <definedName name="A2716167X">Data1!$DQ$1:$DQ$2,Data1!$DQ$3:$DQ$3</definedName>
+    <definedName name="A2716167X_Data">Data1!$DQ$3:$DQ$3</definedName>
     <definedName name="A2716167X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716168A">Data1!$DS$1:$DS$10,Data1!$DS$11:$DS$11</definedName>
-    <definedName name="A2716168A_Data">Data1!$DS$11:$DS$11</definedName>
+    <definedName name="A2716168A">Data1!$DS$1:$DS$2,Data1!$DS$3:$DS$3</definedName>
+    <definedName name="A2716168A_Data">Data1!$DS$3:$DS$3</definedName>
     <definedName name="A2716168A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716169C">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$11</definedName>
-    <definedName name="A2716169C_Data">Data1!$DT$11:$DT$11</definedName>
+    <definedName name="A2716169C">Data1!$DT$1:$DT$2,Data1!$DT$3:$DT$3</definedName>
+    <definedName name="A2716169C_Data">Data1!$DT$3:$DT$3</definedName>
     <definedName name="A2716169C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716171R">Data1!$DR$1:$DR$10,Data1!$DR$11:$DR$11</definedName>
-    <definedName name="A2716171R_Data">Data1!$DR$11:$DR$11</definedName>
+    <definedName name="A2716171R">Data1!$DR$1:$DR$2,Data1!$DR$3:$DR$3</definedName>
+    <definedName name="A2716171R_Data">Data1!$DR$3:$DR$3</definedName>
     <definedName name="A2716171R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716175X">Data1!$DZ$1:$DZ$10,Data1!$DZ$11:$DZ$11</definedName>
-    <definedName name="A2716175X_Data">Data1!$DZ$11:$DZ$11</definedName>
+    <definedName name="A2716175X">Data1!$DZ$1:$DZ$2,Data1!$DZ$3:$DZ$3</definedName>
+    <definedName name="A2716175X_Data">Data1!$DZ$3:$DZ$3</definedName>
     <definedName name="A2716175X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716176A">Data1!$DW$1:$DW$10,Data1!$DW$11:$DW$11</definedName>
-    <definedName name="A2716176A_Data">Data1!$DW$11:$DW$11</definedName>
+    <definedName name="A2716176A">Data1!$DW$1:$DW$2,Data1!$DW$3:$DW$3</definedName>
+    <definedName name="A2716176A_Data">Data1!$DW$3:$DW$3</definedName>
     <definedName name="A2716176A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716177C">Data1!$DX$1:$DX$10,Data1!$DX$11:$DX$11</definedName>
-    <definedName name="A2716177C_Data">Data1!$DX$11:$DX$11</definedName>
+    <definedName name="A2716177C">Data1!$DX$1:$DX$2,Data1!$DX$3:$DX$3</definedName>
+    <definedName name="A2716177C_Data">Data1!$DX$3:$DX$3</definedName>
     <definedName name="A2716177C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716178F">Data1!$DY$1:$DY$10,Data1!$DY$11:$DY$11</definedName>
-    <definedName name="A2716178F_Data">Data1!$DY$11:$DY$11</definedName>
+    <definedName name="A2716178F">Data1!$DY$1:$DY$2,Data1!$DY$3:$DY$3</definedName>
+    <definedName name="A2716178F_Data">Data1!$DY$3:$DY$3</definedName>
     <definedName name="A2716178F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716179J">Data1!$ED$1:$ED$10,Data1!$ED$11:$ED$11</definedName>
-    <definedName name="A2716179J_Data">Data1!$ED$11:$ED$11</definedName>
+    <definedName name="A2716179J">Data1!$ED$1:$ED$2,Data1!$ED$3:$ED$3</definedName>
+    <definedName name="A2716179J_Data">Data1!$ED$3:$ED$3</definedName>
     <definedName name="A2716179J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716180T">Data1!$EE$1:$EE$10,Data1!$EE$11:$EE$11</definedName>
-    <definedName name="A2716180T_Data">Data1!$EE$11:$EE$11</definedName>
+    <definedName name="A2716180T">Data1!$EE$1:$EE$2,Data1!$EE$3:$EE$3</definedName>
+    <definedName name="A2716180T_Data">Data1!$EE$3:$EE$3</definedName>
     <definedName name="A2716180T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716181V">Data1!$EF$1:$EF$10,Data1!$EF$11:$EF$11</definedName>
-    <definedName name="A2716181V_Data">Data1!$EF$11:$EF$11</definedName>
+    <definedName name="A2716181V">Data1!$EF$1:$EF$2,Data1!$EF$3:$EF$3</definedName>
+    <definedName name="A2716181V_Data">Data1!$EF$3:$EF$3</definedName>
     <definedName name="A2716181V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716182W">Data1!$EG$1:$EG$10,Data1!$EG$11:$EG$11</definedName>
-    <definedName name="A2716182W_Data">Data1!$EG$11:$EG$11</definedName>
+    <definedName name="A2716182W">Data1!$EG$1:$EG$2,Data1!$EG$3:$EG$3</definedName>
+    <definedName name="A2716182W_Data">Data1!$EG$3:$EG$3</definedName>
     <definedName name="A2716182W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716183X">Data1!$EL$1:$EL$10,Data1!$EL$11:$EL$11</definedName>
-    <definedName name="A2716183X_Data">Data1!$EL$11:$EL$11</definedName>
+    <definedName name="A2716183X">Data1!$EL$1:$EL$2,Data1!$EL$3:$EL$3</definedName>
+    <definedName name="A2716183X_Data">Data1!$EL$3:$EL$3</definedName>
     <definedName name="A2716183X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716184A">Data1!$EI$1:$EI$10,Data1!$EI$11:$EI$11</definedName>
-    <definedName name="A2716184A_Data">Data1!$EI$11:$EI$11</definedName>
+    <definedName name="A2716184A">Data1!$EI$1:$EI$2,Data1!$EI$3:$EI$3</definedName>
+    <definedName name="A2716184A_Data">Data1!$EI$3:$EI$3</definedName>
     <definedName name="A2716184A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716187J">Data1!$EK$1:$EK$10,Data1!$EK$11:$EK$11</definedName>
-    <definedName name="A2716187J_Data">Data1!$EK$11:$EK$11</definedName>
+    <definedName name="A2716187J">Data1!$EK$1:$EK$2,Data1!$EK$3:$EK$3</definedName>
+    <definedName name="A2716187J_Data">Data1!$EK$3:$EK$3</definedName>
     <definedName name="A2716187J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716188K">Data1!$EO$1:$EO$10,Data1!$EO$11:$EO$11</definedName>
-    <definedName name="A2716188K_Data">Data1!$EO$11:$EO$11</definedName>
+    <definedName name="A2716188K">Data1!$EO$1:$EO$2,Data1!$EO$3:$EO$3</definedName>
+    <definedName name="A2716188K_Data">Data1!$EO$3:$EO$3</definedName>
     <definedName name="A2716188K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716189L">Data1!$ER$1:$ER$10,Data1!$ER$11:$ER$11</definedName>
-    <definedName name="A2716189L_Data">Data1!$ER$11:$ER$11</definedName>
+    <definedName name="A2716189L">Data1!$ER$1:$ER$2,Data1!$ER$3:$ER$3</definedName>
+    <definedName name="A2716189L_Data">Data1!$ER$3:$ER$3</definedName>
     <definedName name="A2716189L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716190W">Data1!$EU$1:$EU$10,Data1!$EU$11:$EU$11</definedName>
-    <definedName name="A2716190W_Data">Data1!$EU$11:$EU$11</definedName>
+    <definedName name="A2716190W">Data1!$EU$1:$EU$2,Data1!$EU$3:$EU$3</definedName>
+    <definedName name="A2716190W_Data">Data1!$EU$3:$EU$3</definedName>
     <definedName name="A2716190W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716191X">Data1!$EX$1:$EX$10,Data1!$EX$11:$EX$11</definedName>
-    <definedName name="A2716191X_Data">Data1!$EX$11:$EX$11</definedName>
+    <definedName name="A2716191X">Data1!$EX$1:$EX$2,Data1!$EX$3:$EX$3</definedName>
+    <definedName name="A2716191X_Data">Data1!$EX$3:$EX$3</definedName>
     <definedName name="A2716191X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716192A">Data1!$EZ$1:$EZ$10,Data1!$EZ$11:$EZ$11</definedName>
-    <definedName name="A2716192A_Data">Data1!$EZ$11:$EZ$11</definedName>
+    <definedName name="A2716192A">Data1!$EZ$1:$EZ$2,Data1!$EZ$3:$EZ$3</definedName>
+    <definedName name="A2716192A_Data">Data1!$EZ$3:$EZ$3</definedName>
     <definedName name="A2716192A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716193C">Data1!$FA$1:$FA$10,Data1!$FA$11:$FA$11</definedName>
-    <definedName name="A2716193C_Data">Data1!$FA$11:$FA$11</definedName>
+    <definedName name="A2716193C">Data1!$FA$1:$FA$2,Data1!$FA$3:$FA$3</definedName>
+    <definedName name="A2716193C_Data">Data1!$FA$3:$FA$3</definedName>
     <definedName name="A2716193C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716194F">Data1!$FB$1:$FB$10,Data1!$FB$11:$FB$11</definedName>
-    <definedName name="A2716194F_Data">Data1!$FB$11:$FB$11</definedName>
+    <definedName name="A2716194F">Data1!$FB$1:$FB$2,Data1!$FB$3:$FB$3</definedName>
+    <definedName name="A2716194F_Data">Data1!$FB$3:$FB$3</definedName>
     <definedName name="A2716194F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716195J">Data1!$FC$1:$FC$10,Data1!$FC$11:$FC$11</definedName>
-    <definedName name="A2716195J_Data">Data1!$FC$11:$FC$11</definedName>
+    <definedName name="A2716195J">Data1!$FC$1:$FC$2,Data1!$FC$3:$FC$3</definedName>
+    <definedName name="A2716195J_Data">Data1!$FC$3:$FC$3</definedName>
     <definedName name="A2716195J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716196K">Data1!$FD$1:$FD$10,Data1!$FD$11:$FD$11</definedName>
-    <definedName name="A2716196K_Data">Data1!$FD$11:$FD$11</definedName>
+    <definedName name="A2716196K">Data1!$FD$1:$FD$2,Data1!$FD$3:$FD$3</definedName>
+    <definedName name="A2716196K_Data">Data1!$FD$3:$FD$3</definedName>
     <definedName name="A2716196K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716241K">Data1!$HN$1:$HN$10,Data1!$HN$11:$HN$11</definedName>
-    <definedName name="A2716241K_Data">Data1!$HN$11:$HN$11</definedName>
+    <definedName name="A2716241K">Data1!$HN$1:$HN$2,Data1!$HN$3:$HN$3</definedName>
+    <definedName name="A2716241K_Data">Data1!$HN$3:$HN$3</definedName>
     <definedName name="A2716241K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716242L">Data1!$HL$1:$HL$10,Data1!$HL$11:$HL$11</definedName>
-    <definedName name="A2716242L_Data">Data1!$HL$11:$HL$11</definedName>
+    <definedName name="A2716242L">Data1!$HL$1:$HL$2,Data1!$HL$3:$HL$3</definedName>
+    <definedName name="A2716242L_Data">Data1!$HL$3:$HL$3</definedName>
     <definedName name="A2716242L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716243R">Data1!$HM$1:$HM$10,Data1!$HM$11:$HM$11</definedName>
-    <definedName name="A2716243R_Data">Data1!$HM$11:$HM$11</definedName>
+    <definedName name="A2716243R">Data1!$HM$1:$HM$2,Data1!$HM$3:$HM$3</definedName>
+    <definedName name="A2716243R_Data">Data1!$HM$3:$HM$3</definedName>
     <definedName name="A2716243R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716244T">Data1!$HU$1:$HU$10,Data1!$HU$11:$HU$11</definedName>
-    <definedName name="A2716244T_Data">Data1!$HU$11:$HU$11</definedName>
+    <definedName name="A2716244T">Data1!$HU$1:$HU$2,Data1!$HU$3:$HU$3</definedName>
+    <definedName name="A2716244T_Data">Data1!$HU$3:$HU$3</definedName>
     <definedName name="A2716244T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716245V">Data1!$HT$1:$HT$10,Data1!$HT$11:$HT$11</definedName>
-    <definedName name="A2716245V_Data">Data1!$HT$11:$HT$11</definedName>
+    <definedName name="A2716245V">Data1!$HT$1:$HT$2,Data1!$HT$3:$HT$3</definedName>
+    <definedName name="A2716245V_Data">Data1!$HT$3:$HT$3</definedName>
     <definedName name="A2716245V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716246W">Data1!$HS$1:$HS$10,Data1!$HS$11:$HS$11</definedName>
-    <definedName name="A2716246W_Data">Data1!$HS$11:$HS$11</definedName>
+    <definedName name="A2716246W">Data1!$HS$1:$HS$2,Data1!$HS$3:$HS$3</definedName>
+    <definedName name="A2716246W_Data">Data1!$HS$3:$HS$3</definedName>
     <definedName name="A2716246W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716247X">Data1!$IA$1:$IA$10,Data1!$IA$11:$IA$11</definedName>
-    <definedName name="A2716247X_Data">Data1!$IA$11:$IA$11</definedName>
+    <definedName name="A2716247X">Data1!$IA$1:$IA$2,Data1!$IA$3:$IA$3</definedName>
+    <definedName name="A2716247X_Data">Data1!$IA$3:$IA$3</definedName>
     <definedName name="A2716247X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716248A">Data1!$HV$1:$HV$10,Data1!$HV$11:$HV$11</definedName>
-    <definedName name="A2716248A_Data">Data1!$HV$11:$HV$11</definedName>
+    <definedName name="A2716248A">Data1!$HV$1:$HV$2,Data1!$HV$3:$HV$3</definedName>
+    <definedName name="A2716248A_Data">Data1!$HV$3:$HV$3</definedName>
     <definedName name="A2716248A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716249C">Data1!$HX$1:$HX$10,Data1!$HX$11:$HX$11</definedName>
-    <definedName name="A2716249C_Data">Data1!$HX$11:$HX$11</definedName>
+    <definedName name="A2716249C">Data1!$HX$1:$HX$2,Data1!$HX$3:$HX$3</definedName>
+    <definedName name="A2716249C_Data">Data1!$HX$3:$HX$3</definedName>
     <definedName name="A2716249C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716250L">Data1!$HY$1:$HY$10,Data1!$HY$11:$HY$11</definedName>
-    <definedName name="A2716250L_Data">Data1!$HY$11:$HY$11</definedName>
+    <definedName name="A2716250L">Data1!$HY$1:$HY$2,Data1!$HY$3:$HY$3</definedName>
+    <definedName name="A2716250L_Data">Data1!$HY$3:$HY$3</definedName>
     <definedName name="A2716250L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716252T">Data1!$HW$1:$HW$10,Data1!$HW$11:$HW$11</definedName>
-    <definedName name="A2716252T_Data">Data1!$HW$11:$HW$11</definedName>
+    <definedName name="A2716252T">Data1!$HW$1:$HW$2,Data1!$HW$3:$HW$3</definedName>
+    <definedName name="A2716252T_Data">Data1!$HW$3:$HW$3</definedName>
     <definedName name="A2716252T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716256A">Data1!$IE$1:$IE$10,Data1!$IE$11:$IE$11</definedName>
-    <definedName name="A2716256A_Data">Data1!$IE$11:$IE$11</definedName>
+    <definedName name="A2716256A">Data1!$IE$1:$IE$2,Data1!$IE$3:$IE$3</definedName>
+    <definedName name="A2716256A_Data">Data1!$IE$3:$IE$3</definedName>
     <definedName name="A2716256A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716257C">Data1!$IB$1:$IB$10,Data1!$IB$11:$IB$11</definedName>
-    <definedName name="A2716257C_Data">Data1!$IB$11:$IB$11</definedName>
+    <definedName name="A2716257C">Data1!$IB$1:$IB$2,Data1!$IB$3:$IB$3</definedName>
+    <definedName name="A2716257C_Data">Data1!$IB$3:$IB$3</definedName>
     <definedName name="A2716257C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716258F">Data1!$IC$1:$IC$10,Data1!$IC$11:$IC$11</definedName>
-    <definedName name="A2716258F_Data">Data1!$IC$11:$IC$11</definedName>
+    <definedName name="A2716258F">Data1!$IC$1:$IC$2,Data1!$IC$3:$IC$3</definedName>
+    <definedName name="A2716258F_Data">Data1!$IC$3:$IC$3</definedName>
     <definedName name="A2716258F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716259J">Data1!$ID$1:$ID$10,Data1!$ID$11:$ID$11</definedName>
-    <definedName name="A2716259J_Data">Data1!$ID$11:$ID$11</definedName>
+    <definedName name="A2716259J">Data1!$ID$1:$ID$2,Data1!$ID$3:$ID$3</definedName>
+    <definedName name="A2716259J_Data">Data1!$ID$3:$ID$3</definedName>
     <definedName name="A2716259J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716260T">Data1!$II$1:$II$10,Data1!$II$11:$II$11</definedName>
-    <definedName name="A2716260T_Data">Data1!$II$11:$II$11</definedName>
+    <definedName name="A2716260T">Data1!$II$1:$II$2,Data1!$II$3:$II$3</definedName>
+    <definedName name="A2716260T_Data">Data1!$II$3:$II$3</definedName>
     <definedName name="A2716260T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716261V">Data1!$IJ$1:$IJ$10,Data1!$IJ$11:$IJ$11</definedName>
-    <definedName name="A2716261V_Data">Data1!$IJ$11:$IJ$11</definedName>
+    <definedName name="A2716261V">Data1!$IJ$1:$IJ$2,Data1!$IJ$3:$IJ$3</definedName>
+    <definedName name="A2716261V_Data">Data1!$IJ$3:$IJ$3</definedName>
     <definedName name="A2716261V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716262W">Data1!$IK$1:$IK$10,Data1!$IK$11:$IK$11</definedName>
-    <definedName name="A2716262W_Data">Data1!$IK$11:$IK$11</definedName>
+    <definedName name="A2716262W">Data1!$IK$1:$IK$2,Data1!$IK$3:$IK$3</definedName>
+    <definedName name="A2716262W_Data">Data1!$IK$3:$IK$3</definedName>
     <definedName name="A2716262W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716263X">Data1!$IL$1:$IL$10,Data1!$IL$11:$IL$11</definedName>
-    <definedName name="A2716263X_Data">Data1!$IL$11:$IL$11</definedName>
+    <definedName name="A2716263X">Data1!$IL$1:$IL$2,Data1!$IL$3:$IL$3</definedName>
+    <definedName name="A2716263X_Data">Data1!$IL$3:$IL$3</definedName>
     <definedName name="A2716263X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716264A">Data1!$IQ$1:$IQ$10,Data1!$IQ$11:$IQ$11</definedName>
-    <definedName name="A2716264A_Data">Data1!$IQ$11:$IQ$11</definedName>
+    <definedName name="A2716264A">Data1!$IQ$1:$IQ$2,Data1!$IQ$3:$IQ$3</definedName>
+    <definedName name="A2716264A_Data">Data1!$IQ$3:$IQ$3</definedName>
     <definedName name="A2716264A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716265C">Data1!$IN$1:$IN$10,Data1!$IN$11:$IN$11</definedName>
-    <definedName name="A2716265C_Data">Data1!$IN$11:$IN$11</definedName>
+    <definedName name="A2716265C">Data1!$IN$1:$IN$2,Data1!$IN$3:$IN$3</definedName>
+    <definedName name="A2716265C_Data">Data1!$IN$3:$IN$3</definedName>
     <definedName name="A2716265C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716268K">Data1!$IP$1:$IP$10,Data1!$IP$11:$IP$11</definedName>
-    <definedName name="A2716268K_Data">Data1!$IP$11:$IP$11</definedName>
+    <definedName name="A2716268K">Data1!$IP$1:$IP$2,Data1!$IP$3:$IP$3</definedName>
+    <definedName name="A2716268K_Data">Data1!$IP$3:$IP$3</definedName>
     <definedName name="A2716268K_Latest">Data1!#REF!</definedName>
     <definedName name="A2716269L">Data2!$D$1:$D$10,Data2!$D$71:$D$270</definedName>
     <definedName name="A2716269L_Data">Data2!$D$71:$D$270</definedName>
@@ -547,233 +547,233 @@
     <definedName name="A2716278R">Data2!$S$1:$S$10,Data2!$S$71:$S$270</definedName>
     <definedName name="A2716278R_Data">Data2!$S$71:$S$270</definedName>
     <definedName name="A2716278R_Latest">Data2!$S$270</definedName>
-    <definedName name="A2716298X">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$11</definedName>
-    <definedName name="A2716298X_Data">Data1!$BG$11:$BG$11</definedName>
+    <definedName name="A2716298X">Data1!$BG$1:$BG$2,Data1!$BG$3:$BG$3</definedName>
+    <definedName name="A2716298X_Data">Data1!$BG$3:$BG$3</definedName>
     <definedName name="A2716298X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716299A">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$11</definedName>
-    <definedName name="A2716299A_Data">Data1!$BE$11:$BE$11</definedName>
+    <definedName name="A2716299A">Data1!$BE$1:$BE$2,Data1!$BE$3:$BE$3</definedName>
+    <definedName name="A2716299A_Data">Data1!$BE$3:$BE$3</definedName>
     <definedName name="A2716299A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716300X">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$11</definedName>
-    <definedName name="A2716300X_Data">Data1!$BF$11:$BF$11</definedName>
+    <definedName name="A2716300X">Data1!$BF$1:$BF$2,Data1!$BF$3:$BF$3</definedName>
+    <definedName name="A2716300X_Data">Data1!$BF$3:$BF$3</definedName>
     <definedName name="A2716300X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716301A">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$11</definedName>
-    <definedName name="A2716301A_Data">Data1!$BN$11:$BN$11</definedName>
+    <definedName name="A2716301A">Data1!$BN$1:$BN$2,Data1!$BN$3:$BN$3</definedName>
+    <definedName name="A2716301A_Data">Data1!$BN$3:$BN$3</definedName>
     <definedName name="A2716301A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716302C">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$11</definedName>
-    <definedName name="A2716302C_Data">Data1!$BM$11:$BM$11</definedName>
+    <definedName name="A2716302C">Data1!$BM$1:$BM$2,Data1!$BM$3:$BM$3</definedName>
+    <definedName name="A2716302C_Data">Data1!$BM$3:$BM$3</definedName>
     <definedName name="A2716302C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716303F">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$11</definedName>
-    <definedName name="A2716303F_Data">Data1!$BL$11:$BL$11</definedName>
+    <definedName name="A2716303F">Data1!$BL$1:$BL$2,Data1!$BL$3:$BL$3</definedName>
+    <definedName name="A2716303F_Data">Data1!$BL$3:$BL$3</definedName>
     <definedName name="A2716303F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716304J">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$11</definedName>
-    <definedName name="A2716304J_Data">Data1!$BT$11:$BT$11</definedName>
+    <definedName name="A2716304J">Data1!$BT$1:$BT$2,Data1!$BT$3:$BT$3</definedName>
+    <definedName name="A2716304J_Data">Data1!$BT$3:$BT$3</definedName>
     <definedName name="A2716304J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716305K">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$11</definedName>
-    <definedName name="A2716305K_Data">Data1!$BO$11:$BO$11</definedName>
+    <definedName name="A2716305K">Data1!$BO$1:$BO$2,Data1!$BO$3:$BO$3</definedName>
+    <definedName name="A2716305K_Data">Data1!$BO$3:$BO$3</definedName>
     <definedName name="A2716305K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716306L">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$11</definedName>
-    <definedName name="A2716306L_Data">Data1!$BQ$11:$BQ$11</definedName>
+    <definedName name="A2716306L">Data1!$BQ$1:$BQ$2,Data1!$BQ$3:$BQ$3</definedName>
+    <definedName name="A2716306L_Data">Data1!$BQ$3:$BQ$3</definedName>
     <definedName name="A2716306L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716307R">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$11</definedName>
-    <definedName name="A2716307R_Data">Data1!$BR$11:$BR$11</definedName>
+    <definedName name="A2716307R">Data1!$BR$1:$BR$2,Data1!$BR$3:$BR$3</definedName>
+    <definedName name="A2716307R_Data">Data1!$BR$3:$BR$3</definedName>
     <definedName name="A2716307R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716309V">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$11</definedName>
-    <definedName name="A2716309V_Data">Data1!$BP$11:$BP$11</definedName>
+    <definedName name="A2716309V">Data1!$BP$1:$BP$2,Data1!$BP$3:$BP$3</definedName>
+    <definedName name="A2716309V_Data">Data1!$BP$3:$BP$3</definedName>
     <definedName name="A2716309V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716313K">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$11</definedName>
-    <definedName name="A2716313K_Data">Data1!$BX$11:$BX$11</definedName>
+    <definedName name="A2716313K">Data1!$BX$1:$BX$2,Data1!$BX$3:$BX$3</definedName>
+    <definedName name="A2716313K_Data">Data1!$BX$3:$BX$3</definedName>
     <definedName name="A2716313K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716314L">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$11</definedName>
-    <definedName name="A2716314L_Data">Data1!$BU$11:$BU$11</definedName>
+    <definedName name="A2716314L">Data1!$BU$1:$BU$2,Data1!$BU$3:$BU$3</definedName>
+    <definedName name="A2716314L_Data">Data1!$BU$3:$BU$3</definedName>
     <definedName name="A2716314L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716315R">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$11</definedName>
-    <definedName name="A2716315R_Data">Data1!$BV$11:$BV$11</definedName>
+    <definedName name="A2716315R">Data1!$BV$1:$BV$2,Data1!$BV$3:$BV$3</definedName>
+    <definedName name="A2716315R_Data">Data1!$BV$3:$BV$3</definedName>
     <definedName name="A2716315R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716316T">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$11</definedName>
-    <definedName name="A2716316T_Data">Data1!$BW$11:$BW$11</definedName>
+    <definedName name="A2716316T">Data1!$BW$1:$BW$2,Data1!$BW$3:$BW$3</definedName>
+    <definedName name="A2716316T_Data">Data1!$BW$3:$BW$3</definedName>
     <definedName name="A2716316T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716317V">Data1!$CB$1:$CB$10,Data1!$CB$11:$CB$11</definedName>
-    <definedName name="A2716317V_Data">Data1!$CB$11:$CB$11</definedName>
+    <definedName name="A2716317V">Data1!$CB$1:$CB$2,Data1!$CB$3:$CB$3</definedName>
+    <definedName name="A2716317V_Data">Data1!$CB$3:$CB$3</definedName>
     <definedName name="A2716317V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716318W">Data1!$CC$1:$CC$10,Data1!$CC$11:$CC$11</definedName>
-    <definedName name="A2716318W_Data">Data1!$CC$11:$CC$11</definedName>
+    <definedName name="A2716318W">Data1!$CC$1:$CC$2,Data1!$CC$3:$CC$3</definedName>
+    <definedName name="A2716318W_Data">Data1!$CC$3:$CC$3</definedName>
     <definedName name="A2716318W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716319X">Data1!$CD$1:$CD$10,Data1!$CD$11:$CD$11</definedName>
-    <definedName name="A2716319X_Data">Data1!$CD$11:$CD$11</definedName>
+    <definedName name="A2716319X">Data1!$CD$1:$CD$2,Data1!$CD$3:$CD$3</definedName>
+    <definedName name="A2716319X_Data">Data1!$CD$3:$CD$3</definedName>
     <definedName name="A2716319X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716320J">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$11</definedName>
-    <definedName name="A2716320J_Data">Data1!$CE$11:$CE$11</definedName>
+    <definedName name="A2716320J">Data1!$CE$1:$CE$2,Data1!$CE$3:$CE$3</definedName>
+    <definedName name="A2716320J_Data">Data1!$CE$3:$CE$3</definedName>
     <definedName name="A2716320J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716321K">Data1!$CJ$1:$CJ$10,Data1!$CJ$11:$CJ$11</definedName>
-    <definedName name="A2716321K_Data">Data1!$CJ$11:$CJ$11</definedName>
+    <definedName name="A2716321K">Data1!$CJ$1:$CJ$2,Data1!$CJ$3:$CJ$3</definedName>
+    <definedName name="A2716321K_Data">Data1!$CJ$3:$CJ$3</definedName>
     <definedName name="A2716321K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716322L">Data1!$CG$1:$CG$10,Data1!$CG$11:$CG$11</definedName>
-    <definedName name="A2716322L_Data">Data1!$CG$11:$CG$11</definedName>
+    <definedName name="A2716322L">Data1!$CG$1:$CG$2,Data1!$CG$3:$CG$3</definedName>
+    <definedName name="A2716322L_Data">Data1!$CG$3:$CG$3</definedName>
     <definedName name="A2716322L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716325V">Data1!$CI$1:$CI$10,Data1!$CI$11:$CI$11</definedName>
-    <definedName name="A2716325V_Data">Data1!$CI$11:$CI$11</definedName>
+    <definedName name="A2716325V">Data1!$CI$1:$CI$2,Data1!$CI$3:$CI$3</definedName>
+    <definedName name="A2716325V_Data">Data1!$CI$3:$CI$3</definedName>
     <definedName name="A2716325V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716326W">Data1!$CM$1:$CM$10,Data1!$CM$11:$CM$11</definedName>
-    <definedName name="A2716326W_Data">Data1!$CM$11:$CM$11</definedName>
+    <definedName name="A2716326W">Data1!$CM$1:$CM$2,Data1!$CM$3:$CM$3</definedName>
+    <definedName name="A2716326W_Data">Data1!$CM$3:$CM$3</definedName>
     <definedName name="A2716326W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716327X">Data1!$CP$1:$CP$10,Data1!$CP$11:$CP$11</definedName>
-    <definedName name="A2716327X_Data">Data1!$CP$11:$CP$11</definedName>
+    <definedName name="A2716327X">Data1!$CP$1:$CP$2,Data1!$CP$3:$CP$3</definedName>
+    <definedName name="A2716327X_Data">Data1!$CP$3:$CP$3</definedName>
     <definedName name="A2716327X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716328A">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$11</definedName>
-    <definedName name="A2716328A_Data">Data1!$CS$11:$CS$11</definedName>
+    <definedName name="A2716328A">Data1!$CS$1:$CS$2,Data1!$CS$3:$CS$3</definedName>
+    <definedName name="A2716328A_Data">Data1!$CS$3:$CS$3</definedName>
     <definedName name="A2716328A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716329C">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$11</definedName>
-    <definedName name="A2716329C_Data">Data1!$CV$11:$CV$11</definedName>
+    <definedName name="A2716329C">Data1!$CV$1:$CV$2,Data1!$CV$3:$CV$3</definedName>
+    <definedName name="A2716329C_Data">Data1!$CV$3:$CV$3</definedName>
     <definedName name="A2716329C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716330L">Data1!$CW$1:$CW$10,Data1!$CW$11:$CW$11</definedName>
-    <definedName name="A2716330L_Data">Data1!$CW$11:$CW$11</definedName>
+    <definedName name="A2716330L">Data1!$CW$1:$CW$2,Data1!$CW$3:$CW$3</definedName>
+    <definedName name="A2716330L_Data">Data1!$CW$3:$CW$3</definedName>
     <definedName name="A2716330L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716331R">Data1!$CX$1:$CX$10,Data1!$CX$11:$CX$11</definedName>
-    <definedName name="A2716331R_Data">Data1!$CX$11:$CX$11</definedName>
+    <definedName name="A2716331R">Data1!$CX$1:$CX$2,Data1!$CX$3:$CX$3</definedName>
+    <definedName name="A2716331R_Data">Data1!$CX$3:$CX$3</definedName>
     <definedName name="A2716331R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716332T">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$11</definedName>
-    <definedName name="A2716332T_Data">Data1!$CY$11:$CY$11</definedName>
+    <definedName name="A2716332T">Data1!$CY$1:$CY$2,Data1!$CY$3:$CY$3</definedName>
+    <definedName name="A2716332T_Data">Data1!$CY$3:$CY$3</definedName>
     <definedName name="A2716332T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716333V">Data1!$CZ$1:$CZ$10,Data1!$CZ$11:$CZ$11</definedName>
-    <definedName name="A2716333V_Data">Data1!$CZ$11:$CZ$11</definedName>
+    <definedName name="A2716333V">Data1!$CZ$1:$CZ$2,Data1!$CZ$3:$CZ$3</definedName>
+    <definedName name="A2716333V_Data">Data1!$CZ$3:$CZ$3</definedName>
     <definedName name="A2716333V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716334W">Data1!$DA$1:$DA$10,Data1!$DA$11:$DA$11</definedName>
-    <definedName name="A2716334W_Data">Data1!$DA$11:$DA$11</definedName>
+    <definedName name="A2716334W">Data1!$DA$1:$DA$2,Data1!$DA$3:$DA$3</definedName>
+    <definedName name="A2716334W_Data">Data1!$DA$3:$DA$3</definedName>
     <definedName name="A2716334W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716335X">Data1!$DB$1:$DB$10,Data1!$DB$11:$DB$11</definedName>
-    <definedName name="A2716335X_Data">Data1!$DB$11:$DB$11</definedName>
+    <definedName name="A2716335X">Data1!$DB$1:$DB$2,Data1!$DB$3:$DB$3</definedName>
+    <definedName name="A2716335X_Data">Data1!$DB$3:$DB$3</definedName>
     <definedName name="A2716335X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716378X">Data1!$D$1:$D$10,Data1!$D$11:$D$11</definedName>
-    <definedName name="A2716378X_Data">Data1!$D$11:$D$11</definedName>
+    <definedName name="A2716378X">Data1!$D$1:$D$2,Data1!$D$3:$D$3</definedName>
+    <definedName name="A2716378X_Data">Data1!$D$3:$D$3</definedName>
     <definedName name="A2716378X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716379A">Data1!$B$1:$B$10,Data1!$B$11:$B$11</definedName>
-    <definedName name="A2716379A_Data">Data1!$B$11:$B$11</definedName>
+    <definedName name="A2716379A">Data1!$B$1:$B$2,Data1!$B$3:$B$3</definedName>
+    <definedName name="A2716379A_Data">Data1!$B$3:$B$3</definedName>
     <definedName name="A2716379A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716380K">Data1!$C$1:$C$10,Data1!$C$11:$C$11</definedName>
-    <definedName name="A2716380K_Data">Data1!$C$11:$C$11</definedName>
+    <definedName name="A2716380K">Data1!$C$1:$C$2,Data1!$C$3:$C$3</definedName>
+    <definedName name="A2716380K_Data">Data1!$C$3:$C$3</definedName>
     <definedName name="A2716380K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716381L">Data1!$K$1:$K$10,Data1!$K$11:$K$11</definedName>
-    <definedName name="A2716381L_Data">Data1!$K$11:$K$11</definedName>
+    <definedName name="A2716381L">Data1!$K$1:$K$2,Data1!$K$3:$K$3</definedName>
+    <definedName name="A2716381L_Data">Data1!$K$3:$K$3</definedName>
     <definedName name="A2716381L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716382R">Data1!$J$1:$J$10,Data1!$J$11:$J$11</definedName>
-    <definedName name="A2716382R_Data">Data1!$J$11:$J$11</definedName>
+    <definedName name="A2716382R">Data1!$J$1:$J$2,Data1!$J$3:$J$3</definedName>
+    <definedName name="A2716382R_Data">Data1!$J$3:$J$3</definedName>
     <definedName name="A2716382R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716383T">Data1!$I$1:$I$10,Data1!$I$11:$I$11</definedName>
-    <definedName name="A2716383T_Data">Data1!$I$11:$I$11</definedName>
+    <definedName name="A2716383T">Data1!$I$1:$I$2,Data1!$I$3:$I$3</definedName>
+    <definedName name="A2716383T_Data">Data1!$I$3:$I$3</definedName>
     <definedName name="A2716383T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716384V">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$11</definedName>
-    <definedName name="A2716384V_Data">Data1!$Q$11:$Q$11</definedName>
+    <definedName name="A2716384V">Data1!$Q$1:$Q$2,Data1!$Q$3:$Q$3</definedName>
+    <definedName name="A2716384V_Data">Data1!$Q$3:$Q$3</definedName>
     <definedName name="A2716384V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716385W">Data1!$L$1:$L$10,Data1!$L$11:$L$11</definedName>
-    <definedName name="A2716385W_Data">Data1!$L$11:$L$11</definedName>
+    <definedName name="A2716385W">Data1!$L$1:$L$2,Data1!$L$3:$L$3</definedName>
+    <definedName name="A2716385W_Data">Data1!$L$3:$L$3</definedName>
     <definedName name="A2716385W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716386X">Data1!$N$1:$N$10,Data1!$N$11:$N$11</definedName>
-    <definedName name="A2716386X_Data">Data1!$N$11:$N$11</definedName>
+    <definedName name="A2716386X">Data1!$N$1:$N$2,Data1!$N$3:$N$3</definedName>
+    <definedName name="A2716386X_Data">Data1!$N$3:$N$3</definedName>
     <definedName name="A2716386X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716387A">Data1!$O$1:$O$10,Data1!$O$11:$O$11</definedName>
-    <definedName name="A2716387A_Data">Data1!$O$11:$O$11</definedName>
+    <definedName name="A2716387A">Data1!$O$1:$O$2,Data1!$O$3:$O$3</definedName>
+    <definedName name="A2716387A_Data">Data1!$O$3:$O$3</definedName>
     <definedName name="A2716387A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716389F">Data1!$M$1:$M$10,Data1!$M$11:$M$11</definedName>
-    <definedName name="A2716389F_Data">Data1!$M$11:$M$11</definedName>
+    <definedName name="A2716389F">Data1!$M$1:$M$2,Data1!$M$3:$M$3</definedName>
+    <definedName name="A2716389F_Data">Data1!$M$3:$M$3</definedName>
     <definedName name="A2716389F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716393W">Data1!$R$1:$R$10,Data1!$R$11:$R$11</definedName>
-    <definedName name="A2716393W_Data">Data1!$R$11:$R$11</definedName>
+    <definedName name="A2716393W">Data1!$R$1:$R$2,Data1!$R$3:$R$3</definedName>
+    <definedName name="A2716393W_Data">Data1!$R$3:$R$3</definedName>
     <definedName name="A2716393W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716394X">Data1!$S$1:$S$10,Data1!$S$11:$S$11</definedName>
-    <definedName name="A2716394X_Data">Data1!$S$11:$S$11</definedName>
+    <definedName name="A2716394X">Data1!$S$1:$S$2,Data1!$S$3:$S$3</definedName>
+    <definedName name="A2716394X_Data">Data1!$S$3:$S$3</definedName>
     <definedName name="A2716394X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716395A">Data1!$T$1:$T$10,Data1!$T$11:$T$11</definedName>
-    <definedName name="A2716395A_Data">Data1!$T$11:$T$11</definedName>
+    <definedName name="A2716395A">Data1!$T$1:$T$2,Data1!$T$3:$T$3</definedName>
+    <definedName name="A2716395A_Data">Data1!$T$3:$T$3</definedName>
     <definedName name="A2716395A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716396C">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$11</definedName>
-    <definedName name="A2716396C_Data">Data1!$Y$11:$Y$11</definedName>
+    <definedName name="A2716396C">Data1!$Y$1:$Y$2,Data1!$Y$3:$Y$3</definedName>
+    <definedName name="A2716396C_Data">Data1!$Y$3:$Y$3</definedName>
     <definedName name="A2716396C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716397F">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$11</definedName>
-    <definedName name="A2716397F_Data">Data1!$Z$11:$Z$11</definedName>
+    <definedName name="A2716397F">Data1!$Z$1:$Z$2,Data1!$Z$3:$Z$3</definedName>
+    <definedName name="A2716397F_Data">Data1!$Z$3:$Z$3</definedName>
     <definedName name="A2716397F_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716398J">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$11</definedName>
-    <definedName name="A2716398J_Data">Data1!$AA$11:$AA$11</definedName>
+    <definedName name="A2716398J">Data1!$AA$1:$AA$2,Data1!$AA$3:$AA$3</definedName>
+    <definedName name="A2716398J_Data">Data1!$AA$3:$AA$3</definedName>
     <definedName name="A2716398J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716399K">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$11</definedName>
-    <definedName name="A2716399K_Data">Data1!$AB$11:$AB$11</definedName>
+    <definedName name="A2716399K">Data1!$AB$1:$AB$2,Data1!$AB$3:$AB$3</definedName>
+    <definedName name="A2716399K_Data">Data1!$AB$3:$AB$3</definedName>
     <definedName name="A2716399K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716400J">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$11</definedName>
-    <definedName name="A2716400J_Data">Data1!$AG$11:$AG$11</definedName>
+    <definedName name="A2716400J">Data1!$AG$1:$AG$2,Data1!$AG$3:$AG$3</definedName>
+    <definedName name="A2716400J_Data">Data1!$AG$3:$AG$3</definedName>
     <definedName name="A2716400J_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716401K">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$11</definedName>
-    <definedName name="A2716401K_Data">Data1!$AD$11:$AD$11</definedName>
+    <definedName name="A2716401K">Data1!$AD$1:$AD$2,Data1!$AD$3:$AD$3</definedName>
+    <definedName name="A2716401K_Data">Data1!$AD$3:$AD$3</definedName>
     <definedName name="A2716401K_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716404T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$11</definedName>
-    <definedName name="A2716404T_Data">Data1!$AF$11:$AF$11</definedName>
+    <definedName name="A2716404T">Data1!$AF$1:$AF$2,Data1!$AF$3:$AF$3</definedName>
+    <definedName name="A2716404T_Data">Data1!$AF$3:$AF$3</definedName>
     <definedName name="A2716404T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716405V">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$11</definedName>
-    <definedName name="A2716405V_Data">Data1!$AJ$11:$AJ$11</definedName>
+    <definedName name="A2716405V">Data1!$AJ$1:$AJ$2,Data1!$AJ$3:$AJ$3</definedName>
+    <definedName name="A2716405V_Data">Data1!$AJ$3:$AJ$3</definedName>
     <definedName name="A2716405V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716406W">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$11</definedName>
-    <definedName name="A2716406W_Data">Data1!$AM$11:$AM$11</definedName>
+    <definedName name="A2716406W">Data1!$AM$1:$AM$2,Data1!$AM$3:$AM$3</definedName>
+    <definedName name="A2716406W_Data">Data1!$AM$3:$AM$3</definedName>
     <definedName name="A2716406W_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716407X">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$11</definedName>
-    <definedName name="A2716407X_Data">Data1!$AP$11:$AP$11</definedName>
+    <definedName name="A2716407X">Data1!$AP$1:$AP$2,Data1!$AP$3:$AP$3</definedName>
+    <definedName name="A2716407X_Data">Data1!$AP$3:$AP$3</definedName>
     <definedName name="A2716407X_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716408A">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$11</definedName>
-    <definedName name="A2716408A_Data">Data1!$AS$11:$AS$11</definedName>
+    <definedName name="A2716408A">Data1!$AS$1:$AS$2,Data1!$AS$3:$AS$3</definedName>
+    <definedName name="A2716408A_Data">Data1!$AS$3:$AS$3</definedName>
     <definedName name="A2716408A_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716409C">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$11</definedName>
-    <definedName name="A2716409C_Data">Data1!$AT$11:$AT$11</definedName>
+    <definedName name="A2716409C">Data1!$AT$1:$AT$2,Data1!$AT$3:$AT$3</definedName>
+    <definedName name="A2716409C_Data">Data1!$AT$3:$AT$3</definedName>
     <definedName name="A2716409C_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716410L">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$11</definedName>
-    <definedName name="A2716410L_Data">Data1!$AU$11:$AU$11</definedName>
+    <definedName name="A2716410L">Data1!$AU$1:$AU$2,Data1!$AU$3:$AU$3</definedName>
+    <definedName name="A2716410L_Data">Data1!$AU$3:$AU$3</definedName>
     <definedName name="A2716410L_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716411R">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$11</definedName>
-    <definedName name="A2716411R_Data">Data1!$AV$11:$AV$11</definedName>
+    <definedName name="A2716411R">Data1!$AV$1:$AV$2,Data1!$AV$3:$AV$3</definedName>
+    <definedName name="A2716411R_Data">Data1!$AV$3:$AV$3</definedName>
     <definedName name="A2716411R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716412T">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$11</definedName>
-    <definedName name="A2716412T_Data">Data1!$AW$11:$AW$11</definedName>
+    <definedName name="A2716412T">Data1!$AW$1:$AW$2,Data1!$AW$3:$AW$3</definedName>
+    <definedName name="A2716412T_Data">Data1!$AW$3:$AW$3</definedName>
     <definedName name="A2716412T_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716413V">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$11</definedName>
-    <definedName name="A2716413V_Data">Data1!$AX$11:$AX$11</definedName>
+    <definedName name="A2716413V">Data1!$AX$1:$AX$2,Data1!$AX$3:$AX$3</definedName>
+    <definedName name="A2716413V_Data">Data1!$AX$3:$AX$3</definedName>
     <definedName name="A2716413V_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716414W">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$11</definedName>
-    <definedName name="A2716414W_Data">Data1!$AY$11:$AY$11</definedName>
+    <definedName name="A2716414W">Data1!$AY$1:$AY$2,Data1!$AY$3:$AY$3</definedName>
+    <definedName name="A2716414W_Data">Data1!$AY$3:$AY$3</definedName>
     <definedName name="A2716414W_Latest">Data1!#REF!</definedName>
     <definedName name="A2716584L">Data2!$BR$1:$BR$10,Data2!$BR$72:$BR$270</definedName>
     <definedName name="A2716584L_Data">Data2!$BR$72:$BR$270</definedName>
     <definedName name="A2716584L_Latest">Data2!$BR$270</definedName>
-    <definedName name="A2716585R">Data1!$EY$1:$EY$10,Data1!$EY$11:$EY$11</definedName>
-    <definedName name="A2716585R_Data">Data1!$EY$11:$EY$11</definedName>
+    <definedName name="A2716585R">Data1!$EY$1:$EY$2,Data1!$EY$3:$EY$3</definedName>
+    <definedName name="A2716585R_Data">Data1!$EY$3:$EY$3</definedName>
     <definedName name="A2716585R_Latest">Data1!#REF!</definedName>
-    <definedName name="A2716587V">Data1!$U$1:$U$10,Data1!$U$11:$U$11</definedName>
-    <definedName name="A2716587V_Data">Data1!$U$11:$U$11</definedName>
+    <definedName name="A2716587V">Data1!$U$1:$U$2,Data1!$U$3:$U$3</definedName>
+    <definedName name="A2716587V_Data">Data1!$U$3:$U$3</definedName>
     <definedName name="A2716587V_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348484C">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$11</definedName>
-    <definedName name="A3348484C_Data">Data1!$AC$11:$AC$11</definedName>
+    <definedName name="A3348484C">Data1!$AC$1:$AC$2,Data1!$AC$3:$AC$3</definedName>
+    <definedName name="A3348484C_Data">Data1!$AC$3:$AC$3</definedName>
     <definedName name="A3348484C_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348485F">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$11</definedName>
-    <definedName name="A3348485F_Data">Data1!$AE$11:$AE$11</definedName>
+    <definedName name="A3348485F">Data1!$AE$1:$AE$2,Data1!$AE$3:$AE$3</definedName>
+    <definedName name="A3348485F_Data">Data1!$AE$3:$AE$3</definedName>
     <definedName name="A3348485F_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348486J">Data1!$CF$1:$CF$10,Data1!$CF$11:$CF$11</definedName>
-    <definedName name="A3348486J_Data">Data1!$CF$11:$CF$11</definedName>
+    <definedName name="A3348486J">Data1!$CF$1:$CF$2,Data1!$CF$3:$CF$3</definedName>
+    <definedName name="A3348486J_Data">Data1!$CF$3:$CF$3</definedName>
     <definedName name="A3348486J_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348487K">Data1!$CH$1:$CH$10,Data1!$CH$11:$CH$11</definedName>
-    <definedName name="A3348487K_Data">Data1!$CH$11:$CH$11</definedName>
+    <definedName name="A3348487K">Data1!$CH$1:$CH$2,Data1!$CH$3:$CH$3</definedName>
+    <definedName name="A3348487K_Data">Data1!$CH$3:$CH$3</definedName>
     <definedName name="A3348487K_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348488L">Data1!$EH$1:$EH$10,Data1!$EH$11:$EH$11</definedName>
-    <definedName name="A3348488L_Data">Data1!$EH$11:$EH$11</definedName>
+    <definedName name="A3348488L">Data1!$EH$1:$EH$2,Data1!$EH$3:$EH$3</definedName>
+    <definedName name="A3348488L_Data">Data1!$EH$3:$EH$3</definedName>
     <definedName name="A3348488L_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348489R">Data1!$EJ$1:$EJ$10,Data1!$EJ$11:$EJ$11</definedName>
-    <definedName name="A3348489R_Data">Data1!$EJ$11:$EJ$11</definedName>
+    <definedName name="A3348489R">Data1!$EJ$1:$EJ$2,Data1!$EJ$3:$EJ$3</definedName>
+    <definedName name="A3348489R_Data">Data1!$EJ$3:$EJ$3</definedName>
     <definedName name="A3348489R_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348490X">Data1!$GK$1:$GK$10,Data1!$GK$11:$GK$11</definedName>
-    <definedName name="A3348490X_Data">Data1!$GK$11:$GK$11</definedName>
+    <definedName name="A3348490X">Data1!$GK$1:$GK$2,Data1!$GK$3:$GK$3</definedName>
+    <definedName name="A3348490X_Data">Data1!$GK$3:$GK$3</definedName>
     <definedName name="A3348490X_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348491A">Data1!$GM$1:$GM$10,Data1!$GM$11:$GM$11</definedName>
-    <definedName name="A3348491A_Data">Data1!$GM$11:$GM$11</definedName>
+    <definedName name="A3348491A">Data1!$GM$1:$GM$2,Data1!$GM$3:$GM$3</definedName>
+    <definedName name="A3348491A_Data">Data1!$GM$3:$GM$3</definedName>
     <definedName name="A3348491A_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348492C">Data1!$IM$1:$IM$10,Data1!$IM$11:$IM$11</definedName>
-    <definedName name="A3348492C_Data">Data1!$IM$11:$IM$11</definedName>
+    <definedName name="A3348492C">Data1!$IM$1:$IM$2,Data1!$IM$3:$IM$3</definedName>
+    <definedName name="A3348492C_Data">Data1!$IM$3:$IM$3</definedName>
     <definedName name="A3348492C_Latest">Data1!#REF!</definedName>
-    <definedName name="A3348493F">Data1!$IO$1:$IO$10,Data1!$IO$11:$IO$11</definedName>
-    <definedName name="A3348493F_Data">Data1!$IO$11:$IO$11</definedName>
+    <definedName name="A3348493F">Data1!$IO$1:$IO$2,Data1!$IO$3:$IO$3</definedName>
+    <definedName name="A3348493F_Data">Data1!$IO$3:$IO$3</definedName>
     <definedName name="A3348493F_Latest">Data1!#REF!</definedName>
     <definedName name="A3348494J">Data2!$AZ$1:$AZ$10,Data2!$AZ$72:$AZ$270</definedName>
     <definedName name="A3348494J_Data">Data2!$AZ$72:$AZ$270</definedName>
@@ -781,35 +781,35 @@
     <definedName name="A3348495K">Data2!$BB$1:$BB$10,Data2!$BB$72:$BB$270</definedName>
     <definedName name="A3348495K_Data">Data2!$BB$72:$BB$270</definedName>
     <definedName name="A3348495K_Latest">Data2!$BB$270</definedName>
-    <definedName name="A3605670A">Data1!$FM$1:$FM$10,Data1!$FM$11:$FM$11</definedName>
-    <definedName name="A3605670A_Data">Data1!$FM$11:$FM$11</definedName>
+    <definedName name="A3605670A">Data1!$FM$1:$FM$2,Data1!$FM$3:$FM$3</definedName>
+    <definedName name="A3605670A_Data">Data1!$FM$3:$FM$3</definedName>
     <definedName name="A3605670A_Latest">Data1!#REF!</definedName>
-    <definedName name="A3605672F">Data1!$FN$1:$FN$10,Data1!$FN$11:$FN$11</definedName>
-    <definedName name="A3605672F_Data">Data1!$FN$11:$FN$11</definedName>
+    <definedName name="A3605672F">Data1!$FN$1:$FN$2,Data1!$FN$3:$FN$3</definedName>
+    <definedName name="A3605672F_Data">Data1!$FN$3:$FN$3</definedName>
     <definedName name="A3605672F_Latest">Data1!#REF!</definedName>
-    <definedName name="A3605673J">Data1!$HP$1:$HP$10,Data1!$HP$11:$HP$11</definedName>
-    <definedName name="A3605673J_Data">Data1!$HP$11:$HP$11</definedName>
+    <definedName name="A3605673J">Data1!$HP$1:$HP$2,Data1!$HP$3:$HP$3</definedName>
+    <definedName name="A3605673J_Data">Data1!$HP$3:$HP$3</definedName>
     <definedName name="A3605673J_Latest">Data1!#REF!</definedName>
-    <definedName name="A3605674K">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$11</definedName>
-    <definedName name="A3605674K_Data">Data1!$BH$11:$BH$11</definedName>
+    <definedName name="A3605674K">Data1!$BH$1:$BH$2,Data1!$BH$3:$BH$3</definedName>
+    <definedName name="A3605674K_Data">Data1!$BH$3:$BH$3</definedName>
     <definedName name="A3605674K_Latest">Data1!#REF!</definedName>
-    <definedName name="A3605676R">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$11</definedName>
-    <definedName name="A3605676R_Data">Data1!$BI$11:$BI$11</definedName>
+    <definedName name="A3605676R">Data1!$BI$1:$BI$2,Data1!$BI$3:$BI$3</definedName>
+    <definedName name="A3605676R_Data">Data1!$BI$3:$BI$3</definedName>
     <definedName name="A3605676R_Latest">Data1!#REF!</definedName>
-    <definedName name="A3605677T">Data1!$HO$1:$HO$10,Data1!$HO$11:$HO$11</definedName>
-    <definedName name="A3605677T_Data">Data1!$HO$11:$HO$11</definedName>
+    <definedName name="A3605677T">Data1!$HO$1:$HO$2,Data1!$HO$3:$HO$3</definedName>
+    <definedName name="A3605677T_Data">Data1!$HO$3:$HO$3</definedName>
     <definedName name="A3605677T_Latest">Data1!#REF!</definedName>
-    <definedName name="A3606066X">Data1!$DJ$1:$DJ$10,Data1!$DJ$11:$DJ$11</definedName>
-    <definedName name="A3606066X_Data">Data1!$DJ$11:$DJ$11</definedName>
+    <definedName name="A3606066X">Data1!$DJ$1:$DJ$2,Data1!$DJ$3:$DJ$3</definedName>
+    <definedName name="A3606066X_Data">Data1!$DJ$3:$DJ$3</definedName>
     <definedName name="A3606066X_Latest">Data1!#REF!</definedName>
-    <definedName name="A3606067A">Data1!$DK$1:$DK$10,Data1!$DK$11:$DK$11</definedName>
-    <definedName name="A3606067A_Data">Data1!$DK$11:$DK$11</definedName>
+    <definedName name="A3606067A">Data1!$DK$1:$DK$2,Data1!$DK$3:$DK$3</definedName>
+    <definedName name="A3606067A_Data">Data1!$DK$3:$DK$3</definedName>
     <definedName name="A3606067A_Latest">Data1!#REF!</definedName>
-    <definedName name="A3606069F">Data1!$E$1:$E$10,Data1!$E$11:$E$11</definedName>
-    <definedName name="A3606069F_Data">Data1!$E$11:$E$11</definedName>
+    <definedName name="A3606069F">Data1!$E$1:$E$2,Data1!$E$3:$E$3</definedName>
+    <definedName name="A3606069F_Data">Data1!$E$3:$E$3</definedName>
     <definedName name="A3606069F_Latest">Data1!#REF!</definedName>
-    <definedName name="A3606070R">Data1!$F$1:$F$10,Data1!$F$11:$F$11</definedName>
-    <definedName name="A3606070R_Data">Data1!$F$11:$F$11</definedName>
+    <definedName name="A3606070R">Data1!$F$1:$F$2,Data1!$F$3:$F$3</definedName>
+    <definedName name="A3606070R_Data">Data1!$F$3:$F$3</definedName>
     <definedName name="A3606070R_Latest">Data1!#REF!</definedName>
     <definedName name="A3606072V">Data2!$AB$1:$AB$10,Data2!$AB$116:$AB$270</definedName>
     <definedName name="A3606072V_Data">Data2!$AB$116:$AB$270</definedName>
@@ -817,113 +817,113 @@
     <definedName name="A3606073W">Data2!$AC$1:$AC$10,Data2!$AC$116:$AC$270</definedName>
     <definedName name="A3606073W_Data">Data2!$AC$116:$AC$270</definedName>
     <definedName name="A3606073W_Latest">Data2!$AC$270</definedName>
-    <definedName name="A83722605X">Data1!$G$1:$G$10,Data1!$G$11:$G$11</definedName>
-    <definedName name="A83722605X_Data">Data1!$G$11:$G$11</definedName>
+    <definedName name="A83722605X">Data1!$G$1:$G$2,Data1!$G$3:$G$3</definedName>
+    <definedName name="A83722605X_Data">Data1!$G$3:$G$3</definedName>
     <definedName name="A83722605X_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722606A">Data1!$FO$1:$FO$10,Data1!$FO$11:$FO$11</definedName>
-    <definedName name="A83722606A_Data">Data1!$FO$11:$FO$11</definedName>
+    <definedName name="A83722606A">Data1!$FO$1:$FO$2,Data1!$FO$3:$FO$3</definedName>
+    <definedName name="A83722606A_Data">Data1!$FO$3:$FO$3</definedName>
     <definedName name="A83722606A_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722607C">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$11</definedName>
-    <definedName name="A83722607C_Data">Data1!$BJ$11:$BJ$11</definedName>
+    <definedName name="A83722607C">Data1!$BJ$1:$BJ$2,Data1!$BJ$3:$BJ$3</definedName>
+    <definedName name="A83722607C_Data">Data1!$BJ$3:$BJ$3</definedName>
     <definedName name="A83722607C_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722608F">Data1!$HR$1:$HR$10,Data1!$HR$11:$HR$11</definedName>
-    <definedName name="A83722608F_Data">Data1!$HR$11:$HR$11</definedName>
+    <definedName name="A83722608F">Data1!$HR$1:$HR$2,Data1!$HR$3:$HR$3</definedName>
+    <definedName name="A83722608F_Data">Data1!$HR$3:$HR$3</definedName>
     <definedName name="A83722608F_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722609J">Data1!$DM$1:$DM$10,Data1!$DM$11:$DM$11</definedName>
-    <definedName name="A83722609J_Data">Data1!$DM$11:$DM$11</definedName>
+    <definedName name="A83722609J">Data1!$DM$1:$DM$2,Data1!$DM$3:$DM$3</definedName>
+    <definedName name="A83722609J_Data">Data1!$DM$3:$DM$3</definedName>
     <definedName name="A83722609J_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722610T">Data1!$H$1:$H$10,Data1!$H$11:$H$11</definedName>
-    <definedName name="A83722610T_Data">Data1!$H$11:$H$11</definedName>
+    <definedName name="A83722610T">Data1!$H$1:$H$2,Data1!$H$3:$H$3</definedName>
+    <definedName name="A83722610T_Data">Data1!$H$3:$H$3</definedName>
     <definedName name="A83722610T_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722611V">Data1!$FP$1:$FP$10,Data1!$FP$11:$FP$11</definedName>
-    <definedName name="A83722611V_Data">Data1!$FP$11:$FP$11</definedName>
+    <definedName name="A83722611V">Data1!$FP$1:$FP$2,Data1!$FP$3:$FP$3</definedName>
+    <definedName name="A83722611V_Data">Data1!$FP$3:$FP$3</definedName>
     <definedName name="A83722611V_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722612W">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$11</definedName>
-    <definedName name="A83722612W_Data">Data1!$BK$11:$BK$11</definedName>
+    <definedName name="A83722612W">Data1!$BK$1:$BK$2,Data1!$BK$3:$BK$3</definedName>
+    <definedName name="A83722612W_Data">Data1!$BK$3:$BK$3</definedName>
     <definedName name="A83722612W_Latest">Data1!#REF!</definedName>
     <definedName name="A83722613X">Data2!$AE$1:$AE$10,Data2!$AE$116:$AE$270</definedName>
     <definedName name="A83722613X_Data">Data2!$AE$116:$AE$270</definedName>
     <definedName name="A83722613X_Latest">Data2!$AE$270</definedName>
-    <definedName name="A83722620W">Data1!$HQ$1:$HQ$10,Data1!$HQ$11:$HQ$11</definedName>
-    <definedName name="A83722620W_Data">Data1!$HQ$11:$HQ$11</definedName>
+    <definedName name="A83722620W">Data1!$HQ$1:$HQ$2,Data1!$HQ$3:$HQ$3</definedName>
+    <definedName name="A83722620W_Data">Data1!$HQ$3:$HQ$3</definedName>
     <definedName name="A83722620W_Latest">Data1!#REF!</definedName>
-    <definedName name="A83722621X">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$11</definedName>
-    <definedName name="A83722621X_Data">Data1!$DL$11:$DL$11</definedName>
+    <definedName name="A83722621X">Data1!$DL$1:$DL$2,Data1!$DL$3:$DL$3</definedName>
+    <definedName name="A83722621X_Data">Data1!$DL$3:$DL$3</definedName>
     <definedName name="A83722621X_Latest">Data1!#REF!</definedName>
     <definedName name="A83722622A">Data2!$AD$1:$AD$10,Data2!$AD$116:$AD$270</definedName>
     <definedName name="A83722622A_Data">Data2!$AD$116:$AD$270</definedName>
     <definedName name="A83722622A_Latest">Data2!$AD$270</definedName>
-    <definedName name="A85231682X">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$11</definedName>
-    <definedName name="A85231682X_Data">Data1!$BS$11:$BS$11</definedName>
+    <definedName name="A85231682X">Data1!$BS$1:$BS$2,Data1!$BS$3:$BS$3</definedName>
+    <definedName name="A85231682X_Data">Data1!$BS$3:$BS$3</definedName>
     <definedName name="A85231682X_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231684C">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$11</definedName>
-    <definedName name="A85231684C_Data">Data1!$BY$11:$BY$11</definedName>
+    <definedName name="A85231684C">Data1!$BY$1:$BY$2,Data1!$BY$3:$BY$3</definedName>
+    <definedName name="A85231684C_Data">Data1!$BY$3:$BY$3</definedName>
     <definedName name="A85231684C_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231686J">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$11</definedName>
-    <definedName name="A85231686J_Data">Data1!$BZ$11:$BZ$11</definedName>
+    <definedName name="A85231686J">Data1!$BZ$1:$BZ$2,Data1!$BZ$3:$BZ$3</definedName>
+    <definedName name="A85231686J_Data">Data1!$BZ$3:$BZ$3</definedName>
     <definedName name="A85231686J_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231688L">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$11</definedName>
-    <definedName name="A85231688L_Data">Data1!$CA$11:$CA$11</definedName>
+    <definedName name="A85231688L">Data1!$CA$1:$CA$2,Data1!$CA$3:$CA$3</definedName>
+    <definedName name="A85231688L_Data">Data1!$CA$3:$CA$3</definedName>
     <definedName name="A85231688L_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231690X">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$11</definedName>
-    <definedName name="A85231690X_Data">Data1!$CK$11:$CK$11</definedName>
+    <definedName name="A85231690X">Data1!$CK$1:$CK$2,Data1!$CK$3:$CK$3</definedName>
+    <definedName name="A85231690X_Data">Data1!$CK$3:$CK$3</definedName>
     <definedName name="A85231690X_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231692C">Data1!$CL$1:$CL$10,Data1!$CL$11:$CL$11</definedName>
-    <definedName name="A85231692C_Data">Data1!$CL$11:$CL$11</definedName>
+    <definedName name="A85231692C">Data1!$CL$1:$CL$2,Data1!$CL$3:$CL$3</definedName>
+    <definedName name="A85231692C_Data">Data1!$CL$3:$CL$3</definedName>
     <definedName name="A85231692C_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231694J">Data1!$CN$1:$CN$10,Data1!$CN$11:$CN$11</definedName>
-    <definedName name="A85231694J_Data">Data1!$CN$11:$CN$11</definedName>
+    <definedName name="A85231694J">Data1!$CN$1:$CN$2,Data1!$CN$3:$CN$3</definedName>
+    <definedName name="A85231694J_Data">Data1!$CN$3:$CN$3</definedName>
     <definedName name="A85231694J_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231696L">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$11</definedName>
-    <definedName name="A85231696L_Data">Data1!$CO$11:$CO$11</definedName>
+    <definedName name="A85231696L">Data1!$CO$1:$CO$2,Data1!$CO$3:$CO$3</definedName>
+    <definedName name="A85231696L_Data">Data1!$CO$3:$CO$3</definedName>
     <definedName name="A85231696L_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231698T">Data1!$CQ$1:$CQ$10,Data1!$CQ$11:$CQ$11</definedName>
-    <definedName name="A85231698T_Data">Data1!$CQ$11:$CQ$11</definedName>
+    <definedName name="A85231698T">Data1!$CQ$1:$CQ$2,Data1!$CQ$3:$CQ$3</definedName>
+    <definedName name="A85231698T_Data">Data1!$CQ$3:$CQ$3</definedName>
     <definedName name="A85231698T_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231700T">Data1!$CR$1:$CR$10,Data1!$CR$11:$CR$11</definedName>
-    <definedName name="A85231700T_Data">Data1!$CR$11:$CR$11</definedName>
+    <definedName name="A85231700T">Data1!$CR$1:$CR$2,Data1!$CR$3:$CR$3</definedName>
+    <definedName name="A85231700T_Data">Data1!$CR$3:$CR$3</definedName>
     <definedName name="A85231700T_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231702W">Data1!$CT$1:$CT$10,Data1!$CT$11:$CT$11</definedName>
-    <definedName name="A85231702W_Data">Data1!$CT$11:$CT$11</definedName>
+    <definedName name="A85231702W">Data1!$CT$1:$CT$2,Data1!$CT$3:$CT$3</definedName>
+    <definedName name="A85231702W_Data">Data1!$CT$3:$CT$3</definedName>
     <definedName name="A85231702W_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231704A">Data1!$CU$1:$CU$10,Data1!$CU$11:$CU$11</definedName>
-    <definedName name="A85231704A_Data">Data1!$CU$11:$CU$11</definedName>
+    <definedName name="A85231704A">Data1!$CU$1:$CU$2,Data1!$CU$3:$CU$3</definedName>
+    <definedName name="A85231704A_Data">Data1!$CU$3:$CU$3</definedName>
     <definedName name="A85231704A_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231706F">Data1!$FX$1:$FX$10,Data1!$FX$11:$FX$11</definedName>
-    <definedName name="A85231706F_Data">Data1!$FX$11:$FX$11</definedName>
+    <definedName name="A85231706F">Data1!$FX$1:$FX$2,Data1!$FX$3:$FX$3</definedName>
+    <definedName name="A85231706F_Data">Data1!$FX$3:$FX$3</definedName>
     <definedName name="A85231706F_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231708K">Data1!$GD$1:$GD$10,Data1!$GD$11:$GD$11</definedName>
-    <definedName name="A85231708K_Data">Data1!$GD$11:$GD$11</definedName>
+    <definedName name="A85231708K">Data1!$GD$1:$GD$2,Data1!$GD$3:$GD$3</definedName>
+    <definedName name="A85231708K_Data">Data1!$GD$3:$GD$3</definedName>
     <definedName name="A85231708K_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231710W">Data1!$GE$1:$GE$10,Data1!$GE$11:$GE$11</definedName>
-    <definedName name="A85231710W_Data">Data1!$GE$11:$GE$11</definedName>
+    <definedName name="A85231710W">Data1!$GE$1:$GE$2,Data1!$GE$3:$GE$3</definedName>
+    <definedName name="A85231710W_Data">Data1!$GE$3:$GE$3</definedName>
     <definedName name="A85231710W_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231712A">Data1!$GF$1:$GF$10,Data1!$GF$11:$GF$11</definedName>
-    <definedName name="A85231712A_Data">Data1!$GF$11:$GF$11</definedName>
+    <definedName name="A85231712A">Data1!$GF$1:$GF$2,Data1!$GF$3:$GF$3</definedName>
+    <definedName name="A85231712A_Data">Data1!$GF$3:$GF$3</definedName>
     <definedName name="A85231712A_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231714F">Data1!$GP$1:$GP$10,Data1!$GP$11:$GP$11</definedName>
-    <definedName name="A85231714F_Data">Data1!$GP$11:$GP$11</definedName>
+    <definedName name="A85231714F">Data1!$GP$1:$GP$2,Data1!$GP$3:$GP$3</definedName>
+    <definedName name="A85231714F_Data">Data1!$GP$3:$GP$3</definedName>
     <definedName name="A85231714F_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231716K">Data1!$GQ$1:$GQ$10,Data1!$GQ$11:$GQ$11</definedName>
-    <definedName name="A85231716K_Data">Data1!$GQ$11:$GQ$11</definedName>
+    <definedName name="A85231716K">Data1!$GQ$1:$GQ$2,Data1!$GQ$3:$GQ$3</definedName>
+    <definedName name="A85231716K_Data">Data1!$GQ$3:$GQ$3</definedName>
     <definedName name="A85231716K_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231718R">Data1!$GS$1:$GS$10,Data1!$GS$11:$GS$11</definedName>
-    <definedName name="A85231718R_Data">Data1!$GS$11:$GS$11</definedName>
+    <definedName name="A85231718R">Data1!$GS$1:$GS$2,Data1!$GS$3:$GS$3</definedName>
+    <definedName name="A85231718R_Data">Data1!$GS$3:$GS$3</definedName>
     <definedName name="A85231718R_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231720A">Data1!$GT$1:$GT$10,Data1!$GT$11:$GT$11</definedName>
-    <definedName name="A85231720A_Data">Data1!$GT$11:$GT$11</definedName>
+    <definedName name="A85231720A">Data1!$GT$1:$GT$2,Data1!$GT$3:$GT$3</definedName>
+    <definedName name="A85231720A_Data">Data1!$GT$3:$GT$3</definedName>
     <definedName name="A85231720A_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231722F">Data1!$GV$1:$GV$10,Data1!$GV$11:$GV$11</definedName>
-    <definedName name="A85231722F_Data">Data1!$GV$11:$GV$11</definedName>
+    <definedName name="A85231722F">Data1!$GV$1:$GV$2,Data1!$GV$3:$GV$3</definedName>
+    <definedName name="A85231722F_Data">Data1!$GV$3:$GV$3</definedName>
     <definedName name="A85231722F_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231724K">Data1!$GW$1:$GW$10,Data1!$GW$11:$GW$11</definedName>
-    <definedName name="A85231724K_Data">Data1!$GW$11:$GW$11</definedName>
+    <definedName name="A85231724K">Data1!$GW$1:$GW$2,Data1!$GW$3:$GW$3</definedName>
+    <definedName name="A85231724K_Data">Data1!$GW$3:$GW$3</definedName>
     <definedName name="A85231724K_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231726R">Data1!$GY$1:$GY$10,Data1!$GY$11:$GY$11</definedName>
-    <definedName name="A85231726R_Data">Data1!$GY$11:$GY$11</definedName>
+    <definedName name="A85231726R">Data1!$GY$1:$GY$2,Data1!$GY$3:$GY$3</definedName>
+    <definedName name="A85231726R_Data">Data1!$GY$3:$GY$3</definedName>
     <definedName name="A85231726R_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231728V">Data1!$GZ$1:$GZ$10,Data1!$GZ$11:$GZ$11</definedName>
-    <definedName name="A85231728V_Data">Data1!$GZ$11:$GZ$11</definedName>
+    <definedName name="A85231728V">Data1!$GZ$1:$GZ$2,Data1!$GZ$3:$GZ$3</definedName>
+    <definedName name="A85231728V_Data">Data1!$GZ$3:$GZ$3</definedName>
     <definedName name="A85231728V_Latest">Data1!#REF!</definedName>
     <definedName name="A85231730F">Data2!$AM$1:$AM$10,Data2!$AM$120:$AM$270</definedName>
     <definedName name="A85231730F_Data">Data2!$AM$120:$AM$270</definedName>
@@ -961,89 +961,89 @@
     <definedName name="A85231741L">Data2!$BO$1:$BO$10,Data2!$BO$152:$BO$270</definedName>
     <definedName name="A85231741L_Data">Data2!$BO$152:$BO$270</definedName>
     <definedName name="A85231741L_Latest">Data2!$BO$270</definedName>
-    <definedName name="A85231742R">Data1!$P$1:$P$10,Data1!$P$11:$P$11</definedName>
-    <definedName name="A85231742R_Data">Data1!$P$11:$P$11</definedName>
+    <definedName name="A85231742R">Data1!$P$1:$P$2,Data1!$P$3:$P$3</definedName>
+    <definedName name="A85231742R_Data">Data1!$P$3:$P$3</definedName>
     <definedName name="A85231742R_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231743T">Data1!$V$1:$V$10,Data1!$V$11:$V$11</definedName>
-    <definedName name="A85231743T_Data">Data1!$V$11:$V$11</definedName>
+    <definedName name="A85231743T">Data1!$V$1:$V$2,Data1!$V$3:$V$3</definedName>
+    <definedName name="A85231743T_Data">Data1!$V$3:$V$3</definedName>
     <definedName name="A85231743T_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231744V">Data1!$W$1:$W$10,Data1!$W$11:$W$11</definedName>
-    <definedName name="A85231744V_Data">Data1!$W$11:$W$11</definedName>
+    <definedName name="A85231744V">Data1!$W$1:$W$2,Data1!$W$3:$W$3</definedName>
+    <definedName name="A85231744V_Data">Data1!$W$3:$W$3</definedName>
     <definedName name="A85231744V_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231745W">Data1!$X$1:$X$10,Data1!$X$11:$X$11</definedName>
-    <definedName name="A85231745W_Data">Data1!$X$11:$X$11</definedName>
+    <definedName name="A85231745W">Data1!$X$1:$X$2,Data1!$X$3:$X$3</definedName>
+    <definedName name="A85231745W_Data">Data1!$X$3:$X$3</definedName>
     <definedName name="A85231745W_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231746X">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$11</definedName>
-    <definedName name="A85231746X_Data">Data1!$AH$11:$AH$11</definedName>
+    <definedName name="A85231746X">Data1!$AH$1:$AH$2,Data1!$AH$3:$AH$3</definedName>
+    <definedName name="A85231746X_Data">Data1!$AH$3:$AH$3</definedName>
     <definedName name="A85231746X_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231747A">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$11</definedName>
-    <definedName name="A85231747A_Data">Data1!$AI$11:$AI$11</definedName>
+    <definedName name="A85231747A">Data1!$AI$1:$AI$2,Data1!$AI$3:$AI$3</definedName>
+    <definedName name="A85231747A_Data">Data1!$AI$3:$AI$3</definedName>
     <definedName name="A85231747A_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231748C">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$11</definedName>
-    <definedName name="A85231748C_Data">Data1!$AK$11:$AK$11</definedName>
+    <definedName name="A85231748C">Data1!$AK$1:$AK$2,Data1!$AK$3:$AK$3</definedName>
+    <definedName name="A85231748C_Data">Data1!$AK$3:$AK$3</definedName>
     <definedName name="A85231748C_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231749F">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$11</definedName>
-    <definedName name="A85231749F_Data">Data1!$AL$11:$AL$11</definedName>
+    <definedName name="A85231749F">Data1!$AL$1:$AL$2,Data1!$AL$3:$AL$3</definedName>
+    <definedName name="A85231749F_Data">Data1!$AL$3:$AL$3</definedName>
     <definedName name="A85231749F_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231750R">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$11</definedName>
-    <definedName name="A85231750R_Data">Data1!$AN$11:$AN$11</definedName>
+    <definedName name="A85231750R">Data1!$AN$1:$AN$2,Data1!$AN$3:$AN$3</definedName>
+    <definedName name="A85231750R_Data">Data1!$AN$3:$AN$3</definedName>
     <definedName name="A85231750R_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231751T">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$11</definedName>
-    <definedName name="A85231751T_Data">Data1!$AO$11:$AO$11</definedName>
+    <definedName name="A85231751T">Data1!$AO$1:$AO$2,Data1!$AO$3:$AO$3</definedName>
+    <definedName name="A85231751T_Data">Data1!$AO$3:$AO$3</definedName>
     <definedName name="A85231751T_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231752V">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$11</definedName>
-    <definedName name="A85231752V_Data">Data1!$AQ$11:$AQ$11</definedName>
+    <definedName name="A85231752V">Data1!$AQ$1:$AQ$2,Data1!$AQ$3:$AQ$3</definedName>
+    <definedName name="A85231752V_Data">Data1!$AQ$3:$AQ$3</definedName>
     <definedName name="A85231752V_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231753W">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$11</definedName>
-    <definedName name="A85231753W_Data">Data1!$AR$11:$AR$11</definedName>
+    <definedName name="A85231753W">Data1!$AR$1:$AR$2,Data1!$AR$3:$AR$3</definedName>
+    <definedName name="A85231753W_Data">Data1!$AR$3:$AR$3</definedName>
     <definedName name="A85231753W_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231754X">Data1!$DU$1:$DU$10,Data1!$DU$11:$DU$11</definedName>
-    <definedName name="A85231754X_Data">Data1!$DU$11:$DU$11</definedName>
+    <definedName name="A85231754X">Data1!$DU$1:$DU$2,Data1!$DU$3:$DU$3</definedName>
+    <definedName name="A85231754X_Data">Data1!$DU$3:$DU$3</definedName>
     <definedName name="A85231754X_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231755A">Data1!$EA$1:$EA$10,Data1!$EA$11:$EA$11</definedName>
-    <definedName name="A85231755A_Data">Data1!$EA$11:$EA$11</definedName>
+    <definedName name="A85231755A">Data1!$EA$1:$EA$2,Data1!$EA$3:$EA$3</definedName>
+    <definedName name="A85231755A_Data">Data1!$EA$3:$EA$3</definedName>
     <definedName name="A85231755A_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231756C">Data1!$EB$1:$EB$10,Data1!$EB$11:$EB$11</definedName>
-    <definedName name="A85231756C_Data">Data1!$EB$11:$EB$11</definedName>
+    <definedName name="A85231756C">Data1!$EB$1:$EB$2,Data1!$EB$3:$EB$3</definedName>
+    <definedName name="A85231756C_Data">Data1!$EB$3:$EB$3</definedName>
     <definedName name="A85231756C_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231757F">Data1!$EC$1:$EC$10,Data1!$EC$11:$EC$11</definedName>
-    <definedName name="A85231757F_Data">Data1!$EC$11:$EC$11</definedName>
+    <definedName name="A85231757F">Data1!$EC$1:$EC$2,Data1!$EC$3:$EC$3</definedName>
+    <definedName name="A85231757F_Data">Data1!$EC$3:$EC$3</definedName>
     <definedName name="A85231757F_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231758J">Data1!$EM$1:$EM$10,Data1!$EM$11:$EM$11</definedName>
-    <definedName name="A85231758J_Data">Data1!$EM$11:$EM$11</definedName>
+    <definedName name="A85231758J">Data1!$EM$1:$EM$2,Data1!$EM$3:$EM$3</definedName>
+    <definedName name="A85231758J_Data">Data1!$EM$3:$EM$3</definedName>
     <definedName name="A85231758J_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231759K">Data1!$EN$1:$EN$10,Data1!$EN$11:$EN$11</definedName>
-    <definedName name="A85231759K_Data">Data1!$EN$11:$EN$11</definedName>
+    <definedName name="A85231759K">Data1!$EN$1:$EN$2,Data1!$EN$3:$EN$3</definedName>
+    <definedName name="A85231759K_Data">Data1!$EN$3:$EN$3</definedName>
     <definedName name="A85231759K_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231760V">Data1!$EP$1:$EP$10,Data1!$EP$11:$EP$11</definedName>
-    <definedName name="A85231760V_Data">Data1!$EP$11:$EP$11</definedName>
+    <definedName name="A85231760V">Data1!$EP$1:$EP$2,Data1!$EP$3:$EP$3</definedName>
+    <definedName name="A85231760V_Data">Data1!$EP$3:$EP$3</definedName>
     <definedName name="A85231760V_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231761W">Data1!$EQ$1:$EQ$10,Data1!$EQ$11:$EQ$11</definedName>
-    <definedName name="A85231761W_Data">Data1!$EQ$11:$EQ$11</definedName>
+    <definedName name="A85231761W">Data1!$EQ$1:$EQ$2,Data1!$EQ$3:$EQ$3</definedName>
+    <definedName name="A85231761W_Data">Data1!$EQ$3:$EQ$3</definedName>
     <definedName name="A85231761W_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231762X">Data1!$ES$1:$ES$10,Data1!$ES$11:$ES$11</definedName>
-    <definedName name="A85231762X_Data">Data1!$ES$11:$ES$11</definedName>
+    <definedName name="A85231762X">Data1!$ES$1:$ES$2,Data1!$ES$3:$ES$3</definedName>
+    <definedName name="A85231762X_Data">Data1!$ES$3:$ES$3</definedName>
     <definedName name="A85231762X_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231763A">Data1!$ET$1:$ET$10,Data1!$ET$11:$ET$11</definedName>
-    <definedName name="A85231763A_Data">Data1!$ET$11:$ET$11</definedName>
+    <definedName name="A85231763A">Data1!$ET$1:$ET$2,Data1!$ET$3:$ET$3</definedName>
+    <definedName name="A85231763A_Data">Data1!$ET$3:$ET$3</definedName>
     <definedName name="A85231763A_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231764C">Data1!$EV$1:$EV$10,Data1!$EV$11:$EV$11</definedName>
-    <definedName name="A85231764C_Data">Data1!$EV$11:$EV$11</definedName>
+    <definedName name="A85231764C">Data1!$EV$1:$EV$2,Data1!$EV$3:$EV$3</definedName>
+    <definedName name="A85231764C_Data">Data1!$EV$3:$EV$3</definedName>
     <definedName name="A85231764C_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231765F">Data1!$EW$1:$EW$10,Data1!$EW$11:$EW$11</definedName>
-    <definedName name="A85231765F_Data">Data1!$EW$11:$EW$11</definedName>
+    <definedName name="A85231765F">Data1!$EW$1:$EW$2,Data1!$EW$3:$EW$3</definedName>
+    <definedName name="A85231765F_Data">Data1!$EW$3:$EW$3</definedName>
     <definedName name="A85231765F_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231766J">Data1!$HZ$1:$HZ$10,Data1!$HZ$11:$HZ$11</definedName>
-    <definedName name="A85231766J_Data">Data1!$HZ$11:$HZ$11</definedName>
+    <definedName name="A85231766J">Data1!$HZ$1:$HZ$2,Data1!$HZ$3:$HZ$3</definedName>
+    <definedName name="A85231766J_Data">Data1!$HZ$3:$HZ$3</definedName>
     <definedName name="A85231766J_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231767K">Data1!$IF$1:$IF$10,Data1!$IF$11:$IF$11</definedName>
-    <definedName name="A85231767K_Data">Data1!$IF$11:$IF$11</definedName>
+    <definedName name="A85231767K">Data1!$IF$1:$IF$2,Data1!$IF$3:$IF$3</definedName>
+    <definedName name="A85231767K_Data">Data1!$IF$3:$IF$3</definedName>
     <definedName name="A85231767K_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231768L">Data1!$IG$1:$IG$10,Data1!$IG$11:$IG$11</definedName>
-    <definedName name="A85231768L_Data">Data1!$IG$11:$IG$11</definedName>
+    <definedName name="A85231768L">Data1!$IG$1:$IG$2,Data1!$IG$3:$IG$3</definedName>
+    <definedName name="A85231768L_Data">Data1!$IG$3:$IG$3</definedName>
     <definedName name="A85231768L_Latest">Data1!#REF!</definedName>
-    <definedName name="A85231769R">Data1!$IH$1:$IH$10,Data1!$IH$11:$IH$11</definedName>
-    <definedName name="A85231769R_Data">Data1!$IH$11:$IH$11</definedName>
+    <definedName name="A85231769R">Data1!$IH$1:$IH$2,Data1!$IH$3:$IH$3</definedName>
+    <definedName name="A85231769R_Data">Data1!$IH$3:$IH$3</definedName>
     <definedName name="A85231769R_Latest">Data1!#REF!</definedName>
     <definedName name="A85231770X">Data2!$B$1:$B$10,Data2!$B$151:$B$270</definedName>
     <definedName name="A85231770X_Data">Data2!$B$151:$B$270</definedName>
@@ -1069,8 +1069,8 @@
     <definedName name="A85231777R">Data2!$L$1:$L$10,Data2!$L$151:$L$270</definedName>
     <definedName name="A85231777R_Data">Data2!$L$151:$L$270</definedName>
     <definedName name="A85231777R_Latest">Data2!$L$270</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$11</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$11</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$2,Data1!$A$3:$A$3</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$3:$A$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1124,7 +1124,7 @@
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1148,30 +1148,6 @@
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Refers to series collected at quarterly and lesser frequencies only.
-Indicates which month in the collection period the data refers to.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>ABS</author>
-  </authors>
-  <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -1190,7 +1166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="565">
   <si>
     <t>Agriculture, forestry and fishing (A) ;  Agriculture ;</t>
   </si>
@@ -15140,14 +15116,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IT11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IT3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="IS17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="HZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="IT3" sqref="IT3"/>
+      <selection pane="bottomRight" activeCell="HN17" sqref="HN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -16666,6803 +16642,762 @@
       </c>
     </row>
     <row r="3" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BF3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BL3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BU3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BW3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BY3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BZ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CA3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CB3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CC3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CE3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CF3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CH3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CI3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CK3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CL3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CM3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CN3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CO3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CP3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CQ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CR3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CT3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CU3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CV3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CW3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CX3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CY3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CZ3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="DA3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="DB3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="DC3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="DD3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="DE3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="DF3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="DG3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DH3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DI3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DJ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DK3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DL3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DM3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DN3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DO3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DP3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DQ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DR3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DS3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DT3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DU3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DV3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DW3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DX3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DY3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="DZ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EA3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EB3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EC3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="ED3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EE3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EF3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EG3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EH3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EI3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EJ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EK3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EL3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EM3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EN3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EO3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EP3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EQ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="ER3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="ES3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="ET3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EU3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EV3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EW3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EX3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EY3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EZ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FA3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FB3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FC3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FD3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FE3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FF3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FG3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FH3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FI3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FJ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FK3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FL3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FM3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FN3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FO3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FP3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FQ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FR3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FS3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FT3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FU3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FV3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FW3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FX3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FY3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FZ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GA3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GB3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GC3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GD3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GE3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GF3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GG3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GH3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GI3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GJ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GK3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GL3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GM3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GN3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GO3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GP3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GQ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GR3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GS3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GT3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GU3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GV3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GW3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GX3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GY3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="GZ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HA3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HB3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HC3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HD3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HE3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HF3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HG3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HH3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HI3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HJ3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HK3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="HL3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HM3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HN3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HO3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HP3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HQ3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HR3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HS3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HT3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HU3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HV3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HW3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HX3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HY3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="HZ3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IA3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IB3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IC3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="ID3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IE3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IF3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IG3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IH3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="II3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IJ3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IK3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IL3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IM3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IN3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IO3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IP3" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="IQ3" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CD4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CR4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CS4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CT4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="CZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DD4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DT4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="ED4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="ER4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="ES4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="ET4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FD4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FR4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FS4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FT4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="FZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GD4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GR4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GS4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GT4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HD4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HI4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HR4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HS4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HT4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HU4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HV4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HW4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HX4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HY4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="HZ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IA4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IB4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IC4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="ID4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IE4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IF4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IG4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IH4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="II4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IJ4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IK4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IL4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IM4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IN4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IO4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IP4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="IQ4" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CR5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CS5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CT5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DD5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DR5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="DZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="ED5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="ER5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="ES5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="ET5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="EZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FD5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FR5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FS5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FT5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="FZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GD5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GR5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GS5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GT5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="GZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HD5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HI5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HR5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HS5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HT5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HU5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HW5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HX5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HY5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="HZ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IA5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IB5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="ID5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IE5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IF5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IG5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IH5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="II5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IJ5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IK5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IL5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IM5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IN5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IO5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IP5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="IQ5" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A3" s="10">
+        <v>43525</v>
+      </c>
+      <c r="B3" s="8">
+        <v>9765</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11770</v>
+      </c>
+      <c r="E3" s="8">
+        <v>25491</v>
+      </c>
+      <c r="F3" s="8">
+        <v>19344</v>
+      </c>
+      <c r="G3" s="8">
+        <v>27872</v>
+      </c>
+      <c r="H3" s="8">
+        <v>7153</v>
+      </c>
+      <c r="I3" s="8">
+        <v>78180</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2778</v>
+      </c>
+      <c r="K3" s="8">
+        <v>80883</v>
+      </c>
+      <c r="L3" s="8">
+        <v>6712</v>
+      </c>
+      <c r="M3" s="8">
+        <v>5737</v>
+      </c>
+      <c r="N3" s="8">
+        <v>5668</v>
+      </c>
+      <c r="O3" s="8">
+        <v>6239</v>
+      </c>
+      <c r="P3" s="8">
+        <v>6431</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>30713</v>
+      </c>
+      <c r="R3" s="8">
+        <v>5870</v>
+      </c>
+      <c r="S3" s="8">
+        <v>400</v>
+      </c>
+      <c r="T3" s="8">
+        <v>4858</v>
+      </c>
+      <c r="U3" s="8">
+        <v>11128</v>
+      </c>
+      <c r="V3" s="8">
+        <v>8801</v>
+      </c>
+      <c r="W3" s="8">
+        <v>8175</v>
+      </c>
+      <c r="X3" s="8">
+        <v>21855</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>38841</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>20170</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>21796</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>11340</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>7092</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>5073</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>4472</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>11029</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>25214</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>4735</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>6109</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>10827</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>24991</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>12093</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>37114</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>2314</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>12392</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>14700</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>7940</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>28143</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>36003</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>18040</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>26566</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>24738</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>37709</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>4070</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>9016</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>45978</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>514767</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>35815</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>231</v>
+      </c>
+      <c r="BD3" s="8">
+        <v>550812</v>
+      </c>
+      <c r="BE3" s="9">
+        <v>-5.8</v>
+      </c>
+      <c r="BF3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="BG3" s="9">
+        <v>-4.8</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="BI3" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="BJ3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="BK3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="BL3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="BM3" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="BN3" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="BO3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="BQ3" s="9">
+        <v>-1.3</v>
+      </c>
+      <c r="BR3" s="9">
+        <v>-1.7</v>
+      </c>
+      <c r="BS3" s="9">
+        <v>-2.9</v>
+      </c>
+      <c r="BT3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="BU3" s="9">
+        <v>-0.8</v>
+      </c>
+      <c r="BV3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="BW3" s="9">
+        <v>-0.5</v>
+      </c>
+      <c r="BX3" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="BY3" s="9">
+        <v>-1.2</v>
+      </c>
+      <c r="BZ3" s="9">
+        <v>-2.8</v>
+      </c>
+      <c r="CA3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="CB3" s="9">
+        <v>-0.7</v>
+      </c>
+      <c r="CC3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="CD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="CF3" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="CG3" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="CH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="9">
+        <v>-1.3</v>
+      </c>
+      <c r="CJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="CL3" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="CM3" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="CN3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="CO3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="CP3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="CQ3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="CR3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="CS3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="CT3" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="CU3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="CV3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CW3" s="9">
+        <v>2</v>
+      </c>
+      <c r="CX3" s="9">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="CZ3" s="9">
+        <v>2</v>
+      </c>
+      <c r="DA3" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="DB3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="DC3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="DD3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="DE3" s="9">
+        <v>-0.7</v>
+      </c>
+      <c r="DF3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="DG3" s="8">
+        <v>9963</v>
+      </c>
+      <c r="DH3" s="8">
+        <v>2026</v>
+      </c>
+      <c r="DI3" s="8">
+        <v>11971</v>
+      </c>
+      <c r="DJ3" s="8">
+        <v>25478</v>
+      </c>
+      <c r="DK3" s="8">
+        <v>19088</v>
+      </c>
+      <c r="DL3" s="8">
+        <v>27812</v>
+      </c>
+      <c r="DM3" s="8">
+        <v>7272</v>
+      </c>
+      <c r="DN3" s="8">
+        <v>78246</v>
+      </c>
+      <c r="DO3" s="8">
+        <v>2708</v>
+      </c>
+      <c r="DP3" s="8">
+        <v>80848</v>
+      </c>
+      <c r="DQ3" s="8">
+        <v>6761</v>
+      </c>
+      <c r="DR3" s="8">
+        <v>5752</v>
+      </c>
+      <c r="DS3" s="8">
+        <v>5665</v>
+      </c>
+      <c r="DT3" s="8">
+        <v>6098</v>
+      </c>
+      <c r="DU3" s="8">
+        <v>6563</v>
+      </c>
+      <c r="DV3" s="8">
+        <v>30772</v>
+      </c>
+      <c r="DW3" s="8">
+        <v>5991</v>
+      </c>
+      <c r="DX3" s="8">
+        <v>394</v>
+      </c>
+      <c r="DY3" s="8">
+        <v>4828</v>
+      </c>
+      <c r="DZ3" s="8">
+        <v>11220</v>
+      </c>
+      <c r="EA3" s="8">
+        <v>8911</v>
+      </c>
+      <c r="EB3" s="8">
+        <v>8168</v>
+      </c>
+      <c r="EC3" s="8">
+        <v>21900</v>
+      </c>
+      <c r="ED3" s="8">
+        <v>38996</v>
+      </c>
+      <c r="EE3" s="8">
+        <v>20220</v>
+      </c>
+      <c r="EF3" s="8">
+        <v>21817</v>
+      </c>
+      <c r="EG3" s="8">
+        <v>11252</v>
+      </c>
+      <c r="EH3" s="8">
+        <v>7083</v>
+      </c>
+      <c r="EI3" s="8">
+        <v>5014</v>
+      </c>
+      <c r="EJ3" s="8">
+        <v>4465</v>
+      </c>
+      <c r="EK3" s="8">
+        <v>11056</v>
+      </c>
+      <c r="EL3" s="8">
+        <v>25200</v>
+      </c>
+      <c r="EM3" s="8">
+        <v>4758</v>
+      </c>
+      <c r="EN3" s="8">
+        <v>5998</v>
+      </c>
+      <c r="EO3" s="8">
+        <v>10751</v>
+      </c>
+      <c r="EP3" s="8">
+        <v>25033</v>
+      </c>
+      <c r="EQ3" s="8">
+        <v>12030</v>
+      </c>
+      <c r="ER3" s="8">
+        <v>37100</v>
+      </c>
+      <c r="ES3" s="8">
+        <v>2306</v>
+      </c>
+      <c r="ET3" s="8">
+        <v>12413</v>
+      </c>
+      <c r="EU3" s="8">
+        <v>14715</v>
+      </c>
+      <c r="EV3" s="8">
+        <v>7877</v>
+      </c>
+      <c r="EW3" s="8">
+        <v>28107</v>
+      </c>
+      <c r="EX3" s="8">
+        <v>35897</v>
+      </c>
+      <c r="EY3" s="8">
+        <v>18110</v>
+      </c>
+      <c r="EZ3" s="8">
+        <v>26419</v>
+      </c>
+      <c r="FA3" s="8">
+        <v>24752</v>
+      </c>
+      <c r="FB3" s="8">
+        <v>37704</v>
+      </c>
+      <c r="FC3" s="8">
+        <v>4104</v>
+      </c>
+      <c r="FD3" s="8">
+        <v>9002</v>
+      </c>
+      <c r="FE3" s="8">
+        <v>45976</v>
+      </c>
+      <c r="FF3" s="8">
+        <v>514791</v>
+      </c>
+      <c r="FG3" s="8">
+        <v>35850</v>
+      </c>
+      <c r="FH3" s="8">
+        <v>883</v>
+      </c>
+      <c r="FI3" s="8">
+        <v>551522</v>
+      </c>
+      <c r="FJ3" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="FK3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="FL3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="FM3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="FN3" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="FO3" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="FP3" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="FQ3" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="FR3" s="9">
+        <v>-2.6</v>
+      </c>
+      <c r="FS3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="FT3" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="FU3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="FV3" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="FW3" s="9">
+        <v>-5.9</v>
+      </c>
+      <c r="FX3" s="9">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="FY3" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="FZ3" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="GA3" s="9">
+        <v>-1.9</v>
+      </c>
+      <c r="GB3" s="9">
+        <v>-0.8</v>
+      </c>
+      <c r="GC3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="GD3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="GE3" s="9">
+        <v>-3</v>
+      </c>
+      <c r="GF3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GG3" s="9">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="GI3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="GJ3" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="GK3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="GL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="GN3" s="9">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="GO3" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="GP3" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="GQ3" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="GR3" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="GS3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="GT3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="GU3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="GV3" s="9">
+        <v>1</v>
+      </c>
+      <c r="GW3" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="GX3" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="GY3" s="9">
+        <v>2</v>
+      </c>
+      <c r="GZ3" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="HA3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="HB3" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>3</v>
-      </c>
-      <c r="R6" s="1">
-        <v>3</v>
-      </c>
-      <c r="S6" s="1">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1">
-        <v>3</v>
-      </c>
-      <c r="U6" s="1">
-        <v>3</v>
-      </c>
-      <c r="V6" s="1">
-        <v>3</v>
-      </c>
-      <c r="W6" s="1">
-        <v>3</v>
-      </c>
-      <c r="X6" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BT6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CT6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="CZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DT6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="DZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="ED6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="ER6" s="1">
-        <v>3</v>
-      </c>
-      <c r="ES6" s="1">
-        <v>3</v>
-      </c>
-      <c r="ET6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="EZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FT6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="FZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GT6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="GZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HI6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HT6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HU6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HV6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HW6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HX6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="HZ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IB6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IC6" s="1">
-        <v>3</v>
-      </c>
-      <c r="ID6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IE6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IF6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IH6" s="1">
-        <v>3</v>
-      </c>
-      <c r="II6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IJ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IK6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IM6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IN6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IO6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IP6" s="1">
-        <v>3</v>
-      </c>
-      <c r="IQ6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:254" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="C7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="D7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="E7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="F7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="G7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="H7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="I7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="J7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="K7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="L7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="M7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="N7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="O7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="P7" s="6">
-        <v>31656</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="R7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="S7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="T7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="U7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="V7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="W7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="X7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AK7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AL7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AM7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AN7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AO7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AP7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AQ7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AR7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="AS7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AT7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AU7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AV7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AW7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AX7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AY7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="AZ7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="BA7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="BB7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="BC7" s="6">
-        <v>21794</v>
-      </c>
-      <c r="BD7" s="6">
-        <v>21794</v>
-      </c>
-      <c r="BE7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BF7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BG7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BH7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="BI7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="BJ7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="BK7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="BL7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BM7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="BN7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BO7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="BP7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="BQ7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="BR7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="BS7" s="6">
-        <v>31747</v>
-      </c>
-      <c r="BT7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BU7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BV7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BW7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BX7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="BY7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="BZ7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CA7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CB7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CC7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CD7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CE7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CF7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CG7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CH7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CI7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CJ7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CK7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CL7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CM7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CN7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CO7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CP7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CQ7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CR7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CS7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CT7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CU7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="CV7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CW7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CX7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CY7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="CZ7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="DA7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="DB7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="DC7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="DD7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="DE7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="DF7" s="6">
-        <v>21885</v>
-      </c>
-      <c r="DG7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DH7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DI7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DJ7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="DK7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="DL7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="DM7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="DN7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DO7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="DP7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DQ7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="DR7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="DS7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="DT7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="DU7" s="6">
-        <v>31656</v>
-      </c>
-      <c r="DV7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DW7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DX7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DY7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="DZ7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EA7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EB7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EC7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="ED7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EE7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EF7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EG7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EH7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EI7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EJ7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EK7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EL7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EM7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EN7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EO7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EP7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EQ7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="ER7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="ES7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="ET7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EU7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EV7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EW7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="EX7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EY7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="EZ7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FA7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FB7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FC7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FD7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FE7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FF7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FG7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="FH7" s="6">
-        <v>21794</v>
-      </c>
-      <c r="FI7" s="6">
-        <v>21794</v>
-      </c>
-      <c r="FJ7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="FK7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="FL7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="FM7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="FN7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="FO7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="FP7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="FQ7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="FR7" s="6">
-        <v>31382</v>
-      </c>
-      <c r="FS7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="FT7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="FU7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="FV7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="FW7" s="6">
-        <v>28460</v>
-      </c>
-      <c r="FX7" s="6">
-        <v>31747</v>
-      </c>
-      <c r="FY7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="FZ7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GA7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GB7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GC7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GD7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GE7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GF7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GG7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GH7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GI7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GJ7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GK7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GL7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GM7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GN7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GO7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GP7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GQ7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GR7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GS7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GT7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GU7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GV7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GW7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GX7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="GY7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="GZ7" s="6">
-        <v>34669</v>
-      </c>
-      <c r="HA7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HB7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HC7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HD7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HE7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HF7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HG7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HH7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HI7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HJ7" s="6">
-        <v>27364</v>
-      </c>
-      <c r="HK7" s="6">
-        <v>21885</v>
-      </c>
-      <c r="HL7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="HM7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="HN7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="HO7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="HP7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="HQ7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="HR7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="HS7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="HT7" s="6">
-        <v>31291</v>
-      </c>
-      <c r="HU7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="HV7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="HW7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="HX7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="HY7" s="6">
-        <v>28369</v>
-      </c>
-      <c r="HZ7" s="6">
-        <v>31656</v>
-      </c>
-      <c r="IA7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IB7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IC7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="ID7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IE7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IF7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="IG7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="IH7" s="6">
-        <v>34578</v>
-      </c>
-      <c r="II7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IJ7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IK7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IL7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IM7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IN7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IO7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IP7" s="6">
-        <v>27273</v>
-      </c>
-      <c r="IQ7" s="6">
-        <v>27273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:254" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="H8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="I8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="J8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="K8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="L8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="M8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="N8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="O8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="P8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="R8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="S8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="T8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="U8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="V8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="W8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="X8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AR8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AS8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AT8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="AZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BD8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BR8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BS8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BT8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="BZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CD8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CR8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CS8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CT8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="CZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DD8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DR8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DS8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DT8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="DZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="ED8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="ER8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="ES8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="ET8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="EZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FD8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FR8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FS8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FT8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="FZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GD8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GR8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GS8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GT8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="GZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HD8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HI8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HQ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HR8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HS8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HT8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HU8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HV8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HW8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HX8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HY8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="HZ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IA8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IB8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IC8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="ID8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IE8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IF8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IG8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IH8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="II8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IJ8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IK8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IL8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IM8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IN8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IO8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IP8" s="6">
-        <v>45444</v>
-      </c>
-      <c r="IQ8" s="6">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="1">
-        <v>200</v>
-      </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-      <c r="D9" s="1">
-        <v>200</v>
-      </c>
-      <c r="E9" s="1">
-        <v>156</v>
-      </c>
-      <c r="F9" s="1">
-        <v>156</v>
-      </c>
-      <c r="G9" s="1">
-        <v>156</v>
-      </c>
-      <c r="H9" s="1">
-        <v>156</v>
-      </c>
-      <c r="I9" s="1">
-        <v>200</v>
-      </c>
-      <c r="J9" s="1">
-        <v>156</v>
-      </c>
-      <c r="K9" s="1">
-        <v>200</v>
-      </c>
-      <c r="L9" s="1">
-        <v>188</v>
-      </c>
-      <c r="M9" s="1">
-        <v>188</v>
-      </c>
-      <c r="N9" s="1">
-        <v>188</v>
-      </c>
-      <c r="O9" s="1">
-        <v>188</v>
-      </c>
-      <c r="P9" s="1">
-        <v>152</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>200</v>
-      </c>
-      <c r="R9" s="1">
-        <v>200</v>
-      </c>
-      <c r="S9" s="1">
-        <v>200</v>
-      </c>
-      <c r="T9" s="1">
-        <v>200</v>
-      </c>
-      <c r="U9" s="1">
-        <v>200</v>
-      </c>
-      <c r="V9" s="1">
-        <v>120</v>
-      </c>
-      <c r="W9" s="1">
-        <v>120</v>
-      </c>
-      <c r="X9" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>200</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>120</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>200</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>200</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>200</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>260</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>260</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>155</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>155</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>155</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>155</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>155</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>187</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>187</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>187</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>187</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>151</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>199</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>119</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CH9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CI9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CQ9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CR9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CS9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CT9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CU9" s="1">
-        <v>119</v>
-      </c>
-      <c r="CV9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CW9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CX9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CY9" s="1">
-        <v>199</v>
-      </c>
-      <c r="CZ9" s="1">
-        <v>199</v>
-      </c>
-      <c r="DA9" s="1">
-        <v>199</v>
-      </c>
-      <c r="DB9" s="1">
-        <v>199</v>
-      </c>
-      <c r="DC9" s="1">
-        <v>199</v>
-      </c>
-      <c r="DD9" s="1">
-        <v>199</v>
-      </c>
-      <c r="DE9" s="1">
-        <v>199</v>
-      </c>
-      <c r="DF9" s="1">
-        <v>259</v>
-      </c>
-      <c r="DG9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DH9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DI9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DJ9" s="1">
-        <v>156</v>
-      </c>
-      <c r="DK9" s="1">
-        <v>156</v>
-      </c>
-      <c r="DL9" s="1">
-        <v>156</v>
-      </c>
-      <c r="DM9" s="1">
-        <v>156</v>
-      </c>
-      <c r="DN9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DO9" s="1">
-        <v>156</v>
-      </c>
-      <c r="DP9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DQ9" s="1">
-        <v>188</v>
-      </c>
-      <c r="DR9" s="1">
-        <v>188</v>
-      </c>
-      <c r="DS9" s="1">
-        <v>188</v>
-      </c>
-      <c r="DT9" s="1">
-        <v>188</v>
-      </c>
-      <c r="DU9" s="1">
-        <v>152</v>
-      </c>
-      <c r="DV9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DW9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DX9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DY9" s="1">
-        <v>200</v>
-      </c>
-      <c r="DZ9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EA9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EB9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EC9" s="1">
-        <v>120</v>
-      </c>
-      <c r="ED9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EE9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EF9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EG9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EH9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EI9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EJ9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EK9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EL9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EM9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EN9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EO9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EP9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EQ9" s="1">
-        <v>120</v>
-      </c>
-      <c r="ER9" s="1">
-        <v>200</v>
-      </c>
-      <c r="ES9" s="1">
-        <v>120</v>
-      </c>
-      <c r="ET9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EU9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EV9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EW9" s="1">
-        <v>120</v>
-      </c>
-      <c r="EX9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EY9" s="1">
-        <v>200</v>
-      </c>
-      <c r="EZ9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FA9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FB9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FC9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FD9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FE9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FF9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FG9" s="1">
-        <v>200</v>
-      </c>
-      <c r="FH9" s="1">
-        <v>260</v>
-      </c>
-      <c r="FI9" s="1">
-        <v>260</v>
-      </c>
-      <c r="FJ9" s="1">
-        <v>199</v>
-      </c>
-      <c r="FK9" s="1">
-        <v>199</v>
-      </c>
-      <c r="FL9" s="1">
-        <v>199</v>
-      </c>
-      <c r="FM9" s="1">
-        <v>155</v>
-      </c>
-      <c r="FN9" s="1">
-        <v>155</v>
-      </c>
-      <c r="FO9" s="1">
-        <v>155</v>
-      </c>
-      <c r="FP9" s="1">
-        <v>155</v>
-      </c>
-      <c r="FQ9" s="1">
-        <v>199</v>
-      </c>
-      <c r="FR9" s="1">
-        <v>155</v>
-      </c>
-      <c r="FS9" s="1">
-        <v>199</v>
-      </c>
-      <c r="FT9" s="1">
-        <v>187</v>
-      </c>
-      <c r="FU9" s="1">
-        <v>187</v>
-      </c>
-      <c r="FV9" s="1">
-        <v>187</v>
-      </c>
-      <c r="FW9" s="1">
-        <v>187</v>
-      </c>
-      <c r="FX9" s="1">
-        <v>151</v>
-      </c>
-      <c r="FY9" s="1">
-        <v>199</v>
-      </c>
-      <c r="FZ9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GA9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GB9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GC9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GD9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GE9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GF9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GG9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GH9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GI9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GJ9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GK9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GL9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GM9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GN9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GO9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GP9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GQ9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GR9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GS9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GT9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GU9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GV9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GW9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GX9" s="1">
-        <v>199</v>
-      </c>
-      <c r="GY9" s="1">
-        <v>119</v>
-      </c>
-      <c r="GZ9" s="1">
-        <v>119</v>
-      </c>
-      <c r="HA9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HB9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HC9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HD9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HE9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HF9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HG9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HH9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HI9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HJ9" s="1">
-        <v>199</v>
-      </c>
-      <c r="HK9" s="1">
-        <v>259</v>
-      </c>
-      <c r="HL9" s="1">
-        <v>200</v>
-      </c>
-      <c r="HM9" s="1">
-        <v>200</v>
-      </c>
-      <c r="HN9" s="1">
-        <v>200</v>
-      </c>
-      <c r="HO9" s="1">
-        <v>156</v>
-      </c>
-      <c r="HP9" s="1">
-        <v>156</v>
-      </c>
-      <c r="HQ9" s="1">
-        <v>156</v>
-      </c>
-      <c r="HR9" s="1">
-        <v>156</v>
-      </c>
-      <c r="HS9" s="1">
-        <v>200</v>
-      </c>
-      <c r="HT9" s="1">
-        <v>156</v>
-      </c>
-      <c r="HU9" s="1">
-        <v>200</v>
-      </c>
-      <c r="HV9" s="1">
-        <v>188</v>
-      </c>
-      <c r="HW9" s="1">
-        <v>188</v>
-      </c>
-      <c r="HX9" s="1">
-        <v>188</v>
-      </c>
-      <c r="HY9" s="1">
-        <v>188</v>
-      </c>
-      <c r="HZ9" s="1">
-        <v>152</v>
-      </c>
-      <c r="IA9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IB9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IC9" s="1">
-        <v>200</v>
-      </c>
-      <c r="ID9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IE9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IF9" s="1">
-        <v>120</v>
-      </c>
-      <c r="IG9" s="1">
-        <v>120</v>
-      </c>
-      <c r="IH9" s="1">
-        <v>120</v>
-      </c>
-      <c r="II9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IJ9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IK9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IL9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IM9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IN9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IO9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IP9" s="1">
-        <v>200</v>
-      </c>
-      <c r="IQ9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BA10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="BB10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="BC10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="BD10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="BF10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="BG10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="BH10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="BI10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="BP10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="BR10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BS10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="BW10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="BY10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="BZ10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="CA10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="CB10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="CC10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="CD10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="CH10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="CI10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="CJ10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="CK10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="CL10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="CM10" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="CN10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="CO10" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="CP10" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="CQ10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="CR10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="CS10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="CT10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="CU10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="CV10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="CW10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="CX10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="CY10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="CZ10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="DA10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="DB10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="DD10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="DE10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="DF10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="DG10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="DH10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="DI10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="DJ10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="DK10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="DL10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="DM10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="DN10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="DO10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="DP10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="DQ10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="DR10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="DS10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="DT10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="DU10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="DV10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="DW10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DX10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="DY10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="DZ10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="EA10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="EB10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="EC10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="ED10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="EE10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="EF10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="EG10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="EH10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="EI10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="EJ10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EK10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="EL10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="EM10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="EO10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="EP10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="EQ10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="ER10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="ES10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="ET10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="EU10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="EV10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="EW10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="EX10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="EY10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="EZ10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="FA10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="FB10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="FC10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="FD10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="FE10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="FF10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="FG10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="FH10" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="FI10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="FJ10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="FK10" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="FL10" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="FM10" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="FN10" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="FO10" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="FP10" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="FQ10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="FR10" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="FS10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="FT10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="FU10" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="FV10" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="FW10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="FX10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="FY10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="FZ10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="GA10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="GB10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="GC10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="GD10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="GE10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="GF10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="GG10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="GH10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="GI10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="GJ10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="GK10" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="GL10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="GM10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="GN10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="GO10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="GP10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="GQ10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="GR10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="GS10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="GT10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="GU10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="GV10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="GW10" s="7" t="s">
+      <c r="HC3" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="HD3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="HE3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="HF3" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="HG3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="HH3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="HI3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="HJ3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="HK3" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="HL3" s="8">
+        <v>10004</v>
+      </c>
+      <c r="HM3" s="8">
+        <v>2028</v>
+      </c>
+      <c r="HN3" s="8">
+        <v>12016</v>
+      </c>
+      <c r="HO3" s="8">
+        <v>24337</v>
+      </c>
+      <c r="HP3" s="8">
+        <v>18600</v>
+      </c>
+      <c r="HQ3" s="8">
+        <v>26054</v>
+      </c>
+      <c r="HR3" s="8">
+        <v>7049</v>
+      </c>
+      <c r="HS3" s="8">
+        <v>75184</v>
+      </c>
+      <c r="HT3" s="8">
+        <v>2571</v>
+      </c>
+      <c r="HU3" s="8">
+        <v>77638</v>
+      </c>
+      <c r="HV3" s="8">
+        <v>6536</v>
+      </c>
+      <c r="HW3" s="8">
+        <v>5637</v>
+      </c>
+      <c r="HX3" s="8">
+        <v>5308</v>
+      </c>
+      <c r="HY3" s="8">
+        <v>5639</v>
+      </c>
+      <c r="HZ3" s="8">
+        <v>6066</v>
+      </c>
+      <c r="IA3" s="8">
+        <v>29169</v>
+      </c>
+      <c r="IB3" s="8">
+        <v>6021</v>
+      </c>
+      <c r="IC3" s="8">
         <v>327</v>
       </c>
-      <c r="GX10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="GY10" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="GZ10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HA10" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="HB10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="HC10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="HD10" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="HE10" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="HF10" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="HG10" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="HH10" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="HI10" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="HJ10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="HK10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="HL10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="HM10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="HN10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="HO10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="HP10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="HQ10" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="HR10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="HS10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="HT10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="HU10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="HV10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="HW10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="HX10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="HY10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="HZ10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="IA10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="IB10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="IC10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="ID10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="IE10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="IF10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="IG10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="IH10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="II10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="IJ10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="IK10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="IL10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="IM10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="IN10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="IO10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="IP10" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="IQ10" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>43525</v>
-      </c>
-      <c r="B11" s="8">
-        <v>9765</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2023</v>
-      </c>
-      <c r="D11" s="8">
-        <v>11770</v>
-      </c>
-      <c r="E11" s="8">
-        <v>25491</v>
-      </c>
-      <c r="F11" s="8">
-        <v>19344</v>
-      </c>
-      <c r="G11" s="8">
-        <v>27872</v>
-      </c>
-      <c r="H11" s="8">
-        <v>7153</v>
-      </c>
-      <c r="I11" s="8">
-        <v>78180</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2778</v>
-      </c>
-      <c r="K11" s="8">
-        <v>80883</v>
-      </c>
-      <c r="L11" s="8">
-        <v>6712</v>
-      </c>
-      <c r="M11" s="8">
-        <v>5737</v>
-      </c>
-      <c r="N11" s="8">
-        <v>5668</v>
-      </c>
-      <c r="O11" s="8">
-        <v>6239</v>
-      </c>
-      <c r="P11" s="8">
-        <v>6431</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>30713</v>
-      </c>
-      <c r="R11" s="8">
-        <v>5870</v>
-      </c>
-      <c r="S11" s="8">
-        <v>400</v>
-      </c>
-      <c r="T11" s="8">
-        <v>4858</v>
-      </c>
-      <c r="U11" s="8">
-        <v>11128</v>
-      </c>
-      <c r="V11" s="8">
-        <v>8801</v>
-      </c>
-      <c r="W11" s="8">
-        <v>8175</v>
-      </c>
-      <c r="X11" s="8">
-        <v>21855</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>38841</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>20170</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>21796</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>11340</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>7092</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>5073</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>4472</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>11029</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>25214</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>4735</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>6109</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>10827</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>24991</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>12093</v>
-      </c>
-      <c r="AM11" s="8">
-        <v>37114</v>
-      </c>
-      <c r="AN11" s="8">
-        <v>2314</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>12392</v>
-      </c>
-      <c r="AP11" s="8">
-        <v>14700</v>
-      </c>
-      <c r="AQ11" s="8">
-        <v>7940</v>
-      </c>
-      <c r="AR11" s="8">
-        <v>28143</v>
-      </c>
-      <c r="AS11" s="8">
-        <v>36003</v>
-      </c>
-      <c r="AT11" s="8">
-        <v>18040</v>
-      </c>
-      <c r="AU11" s="8">
-        <v>26566</v>
-      </c>
-      <c r="AV11" s="8">
-        <v>24738</v>
-      </c>
-      <c r="AW11" s="8">
-        <v>37709</v>
-      </c>
-      <c r="AX11" s="8">
-        <v>4070</v>
-      </c>
-      <c r="AY11" s="8">
-        <v>9016</v>
-      </c>
-      <c r="AZ11" s="8">
-        <v>45978</v>
-      </c>
-      <c r="BA11" s="8">
-        <v>514767</v>
-      </c>
-      <c r="BB11" s="8">
-        <v>35815</v>
-      </c>
-      <c r="BC11" s="8">
-        <v>231</v>
-      </c>
-      <c r="BD11" s="8">
-        <v>550812</v>
-      </c>
-      <c r="BE11" s="9">
-        <v>-5.8</v>
-      </c>
-      <c r="BF11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="BG11" s="9">
-        <v>-4.8</v>
-      </c>
-      <c r="BH11" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="BI11" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="BJ11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="BK11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="BL11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="BM11" s="9">
-        <v>-0.3</v>
-      </c>
-      <c r="BN11" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="BO11" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="BP11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="BQ11" s="9">
-        <v>-1.3</v>
-      </c>
-      <c r="BR11" s="9">
-        <v>-1.7</v>
-      </c>
-      <c r="BS11" s="9">
-        <v>-2.9</v>
-      </c>
-      <c r="BT11" s="9">
-        <v>-1</v>
-      </c>
-      <c r="BU11" s="9">
-        <v>-0.8</v>
-      </c>
-      <c r="BV11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="BW11" s="9">
-        <v>-0.5</v>
-      </c>
-      <c r="BX11" s="9">
-        <v>-0.6</v>
-      </c>
-      <c r="BY11" s="9">
-        <v>-1.2</v>
-      </c>
-      <c r="BZ11" s="9">
-        <v>-2.8</v>
-      </c>
-      <c r="CA11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="CB11" s="9">
-        <v>-0.7</v>
-      </c>
-      <c r="CC11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="CD11" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="CF11" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="CG11" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="CH11" s="9">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="9">
-        <v>-1.3</v>
-      </c>
-      <c r="CJ11" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="CL11" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="CM11" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="CN11" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="CO11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="CP11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="CQ11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="CR11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="CS11" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="CT11" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="CU11" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="CV11" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CW11" s="9">
-        <v>2</v>
-      </c>
-      <c r="CX11" s="9">
-        <v>1</v>
-      </c>
-      <c r="CY11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="CZ11" s="9">
-        <v>2</v>
-      </c>
-      <c r="DA11" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="DB11" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="DC11" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="DD11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="DE11" s="9">
-        <v>-0.7</v>
-      </c>
-      <c r="DF11" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="DG11" s="8">
-        <v>9963</v>
-      </c>
-      <c r="DH11" s="8">
-        <v>2026</v>
-      </c>
-      <c r="DI11" s="8">
-        <v>11971</v>
-      </c>
-      <c r="DJ11" s="8">
-        <v>25478</v>
-      </c>
-      <c r="DK11" s="8">
-        <v>19088</v>
-      </c>
-      <c r="DL11" s="8">
-        <v>27812</v>
-      </c>
-      <c r="DM11" s="8">
-        <v>7272</v>
-      </c>
-      <c r="DN11" s="8">
-        <v>78246</v>
-      </c>
-      <c r="DO11" s="8">
-        <v>2708</v>
-      </c>
-      <c r="DP11" s="8">
-        <v>80848</v>
-      </c>
-      <c r="DQ11" s="8">
-        <v>6761</v>
-      </c>
-      <c r="DR11" s="8">
-        <v>5752</v>
-      </c>
-      <c r="DS11" s="8">
-        <v>5665</v>
-      </c>
-      <c r="DT11" s="8">
-        <v>6098</v>
-      </c>
-      <c r="DU11" s="8">
-        <v>6563</v>
-      </c>
-      <c r="DV11" s="8">
-        <v>30772</v>
-      </c>
-      <c r="DW11" s="8">
-        <v>5991</v>
-      </c>
-      <c r="DX11" s="8">
-        <v>394</v>
-      </c>
-      <c r="DY11" s="8">
-        <v>4828</v>
-      </c>
-      <c r="DZ11" s="8">
-        <v>11220</v>
-      </c>
-      <c r="EA11" s="8">
-        <v>8911</v>
-      </c>
-      <c r="EB11" s="8">
-        <v>8168</v>
-      </c>
-      <c r="EC11" s="8">
-        <v>21900</v>
-      </c>
-      <c r="ED11" s="8">
-        <v>38996</v>
-      </c>
-      <c r="EE11" s="8">
-        <v>20220</v>
-      </c>
-      <c r="EF11" s="8">
-        <v>21817</v>
-      </c>
-      <c r="EG11" s="8">
-        <v>11252</v>
-      </c>
-      <c r="EH11" s="8">
-        <v>7083</v>
-      </c>
-      <c r="EI11" s="8">
-        <v>5014</v>
-      </c>
-      <c r="EJ11" s="8">
-        <v>4465</v>
-      </c>
-      <c r="EK11" s="8">
-        <v>11056</v>
-      </c>
-      <c r="EL11" s="8">
-        <v>25200</v>
-      </c>
-      <c r="EM11" s="8">
-        <v>4758</v>
-      </c>
-      <c r="EN11" s="8">
-        <v>5998</v>
-      </c>
-      <c r="EO11" s="8">
-        <v>10751</v>
-      </c>
-      <c r="EP11" s="8">
-        <v>25033</v>
-      </c>
-      <c r="EQ11" s="8">
-        <v>12030</v>
-      </c>
-      <c r="ER11" s="8">
-        <v>37100</v>
-      </c>
-      <c r="ES11" s="8">
-        <v>2306</v>
-      </c>
-      <c r="ET11" s="8">
-        <v>12413</v>
-      </c>
-      <c r="EU11" s="8">
-        <v>14715</v>
-      </c>
-      <c r="EV11" s="8">
-        <v>7877</v>
-      </c>
-      <c r="EW11" s="8">
-        <v>28107</v>
-      </c>
-      <c r="EX11" s="8">
-        <v>35897</v>
-      </c>
-      <c r="EY11" s="8">
-        <v>18110</v>
-      </c>
-      <c r="EZ11" s="8">
-        <v>26419</v>
-      </c>
-      <c r="FA11" s="8">
-        <v>24752</v>
-      </c>
-      <c r="FB11" s="8">
-        <v>37704</v>
-      </c>
-      <c r="FC11" s="8">
-        <v>4104</v>
-      </c>
-      <c r="FD11" s="8">
-        <v>9002</v>
-      </c>
-      <c r="FE11" s="8">
-        <v>45976</v>
-      </c>
-      <c r="FF11" s="8">
-        <v>514791</v>
-      </c>
-      <c r="FG11" s="8">
-        <v>35850</v>
-      </c>
-      <c r="FH11" s="8">
-        <v>883</v>
-      </c>
-      <c r="FI11" s="8">
-        <v>551522</v>
-      </c>
-      <c r="FJ11" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="FK11" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="FL11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="FM11" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="FN11" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="FO11" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="FP11" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="FQ11" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="FR11" s="9">
-        <v>-2.6</v>
-      </c>
-      <c r="FS11" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="FT11" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="FU11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="FV11" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="FW11" s="9">
-        <v>-5.9</v>
-      </c>
-      <c r="FX11" s="9">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="FY11" s="9">
-        <v>-0.6</v>
-      </c>
-      <c r="FZ11" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="GA11" s="9">
-        <v>-1.9</v>
-      </c>
-      <c r="GB11" s="9">
-        <v>-0.8</v>
-      </c>
-      <c r="GC11" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="GD11" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="GE11" s="9">
-        <v>-3</v>
-      </c>
-      <c r="GF11" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="GG11" s="9">
-        <v>0</v>
-      </c>
-      <c r="GH11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="GI11" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="GJ11" s="9">
-        <v>-0.6</v>
-      </c>
-      <c r="GK11" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="GL11" s="9">
-        <v>0</v>
-      </c>
-      <c r="GM11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="GN11" s="9">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="GO11" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="GP11" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="GQ11" s="9">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="GR11" s="9">
-        <v>-0.3</v>
-      </c>
-      <c r="GS11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="GT11" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="GU11" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="GV11" s="9">
-        <v>1</v>
-      </c>
-      <c r="GW11" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="GX11" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="GY11" s="9">
-        <v>2</v>
-      </c>
-      <c r="GZ11" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="HA11" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="HB11" s="9">
-        <v>3</v>
-      </c>
-      <c r="HC11" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="HD11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="HE11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="HF11" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="HG11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="HH11" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="HI11" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="HJ11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="HK11" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="HL11" s="8">
-        <v>10004</v>
-      </c>
-      <c r="HM11" s="8">
-        <v>2028</v>
-      </c>
-      <c r="HN11" s="8">
-        <v>12016</v>
-      </c>
-      <c r="HO11" s="8">
-        <v>24337</v>
-      </c>
-      <c r="HP11" s="8">
-        <v>18600</v>
-      </c>
-      <c r="HQ11" s="8">
-        <v>26054</v>
-      </c>
-      <c r="HR11" s="8">
-        <v>7049</v>
-      </c>
-      <c r="HS11" s="8">
-        <v>75184</v>
-      </c>
-      <c r="HT11" s="8">
-        <v>2571</v>
-      </c>
-      <c r="HU11" s="8">
-        <v>77638</v>
-      </c>
-      <c r="HV11" s="8">
-        <v>6536</v>
-      </c>
-      <c r="HW11" s="8">
-        <v>5637</v>
-      </c>
-      <c r="HX11" s="8">
-        <v>5308</v>
-      </c>
-      <c r="HY11" s="8">
-        <v>5639</v>
-      </c>
-      <c r="HZ11" s="8">
-        <v>6066</v>
-      </c>
-      <c r="IA11" s="8">
-        <v>29169</v>
-      </c>
-      <c r="IB11" s="8">
-        <v>6021</v>
-      </c>
-      <c r="IC11" s="8">
-        <v>327</v>
-      </c>
-      <c r="ID11" s="8">
+      <c r="ID3" s="8">
         <v>4928</v>
       </c>
-      <c r="IE11" s="8">
+      <c r="IE3" s="8">
         <v>11259</v>
       </c>
-      <c r="IF11" s="8">
+      <c r="IF3" s="8">
         <v>8203</v>
       </c>
-      <c r="IG11" s="8">
+      <c r="IG3" s="8">
         <v>7659</v>
       </c>
-      <c r="IH11" s="8">
+      <c r="IH3" s="8">
         <v>20049</v>
       </c>
-      <c r="II11" s="8">
+      <c r="II3" s="8">
         <v>35916</v>
       </c>
-      <c r="IJ11" s="8">
+      <c r="IJ3" s="8">
         <v>19384</v>
       </c>
-      <c r="IK11" s="8">
+      <c r="IK3" s="8">
         <v>20856</v>
       </c>
-      <c r="IL11" s="8">
+      <c r="IL3" s="8">
         <v>11062</v>
       </c>
-      <c r="IM11" s="8">
+      <c r="IM3" s="8">
         <v>6776</v>
       </c>
-      <c r="IN11" s="8">
+      <c r="IN3" s="8">
         <v>4901</v>
       </c>
-      <c r="IO11" s="8">
+      <c r="IO3" s="8">
         <v>4359</v>
       </c>
-      <c r="IP11" s="8">
+      <c r="IP3" s="8">
         <v>10767</v>
       </c>
-      <c r="IQ11" s="8">
+      <c r="IQ3" s="8">
         <v>24432</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
